--- a/PAdantic/Importers/CLARA Magnet Table v6.xlsx
+++ b/PAdantic/Importers/CLARA Magnet Table v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fed.cclrc.ac.uk\Org\NLab\ASTeC-TDL\Projects\tdl-1168 CLARA\mag - magnets (WP2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkj62.CLRC\Documents\GitHub\PAdantic\PAdantic\Importers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657E148-80C9-475C-AF8B-8C2ED12F2288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E4725C-D871-4DDB-B7EB-6B77D2A5890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="312">
   <si>
     <t>type</t>
   </si>
@@ -1195,18 +1195,26 @@
   <si>
     <t>Slope constants added for FEBE hutch quads and integrated correctors</t>
   </si>
+  <si>
+    <t>Nominal currents for FEH quads and correctors</t>
+  </si>
+  <si>
+    <t>Measured magnetic lengths and curve constants for FEA quads. Missing FEA-QUAD-03 magnetic length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="185" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1404,7 +1412,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1610,6 +1618,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2076,55 +2086,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK533"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AA49" sqref="AA49"/>
+      <selection pane="bottomLeft" activeCell="AA170" sqref="AA170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="28" customWidth="1"/>
-    <col min="12" max="13" width="8.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="28" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="5" customWidth="1"/>
     <col min="16" max="16" width="10" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" style="14" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" customWidth="1"/>
-    <col min="23" max="24" width="9.33203125" style="14" customWidth="1"/>
-    <col min="25" max="25" width="5.44140625" style="55" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="54" customWidth="1"/>
-    <col min="28" max="28" width="7.109375" style="57" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="55" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="54" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="57" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="54" customWidth="1"/>
-    <col min="31" max="31" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="57" customWidth="1"/>
-    <col min="35" max="35" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" style="57" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
         <v>43</v>
       </c>
@@ -2139,12 +2150,12 @@
       <c r="H1" s="21"/>
       <c r="I1" s="79">
         <f>MAX(Revision!A:A)</f>
-        <v>6.23</v>
+        <v>6.25</v>
       </c>
       <c r="J1" s="41"/>
       <c r="K1" s="82">
         <f>VLOOKUP(I1,Revision!A:B,2,FALSE)</f>
-        <v>45517</v>
+        <v>45607</v>
       </c>
       <c r="L1" s="82"/>
       <c r="M1" s="82"/>
@@ -2175,7 +2186,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" ht="44.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="44.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2221,7 +2232,7 @@
       <c r="AJ2" s="50"/>
       <c r="AK2" s="17"/>
     </row>
-    <row r="3" spans="1:37" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>267</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2950,7 +2961,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3048,7 +3059,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -3251,7 +3262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30</v>
       </c>
@@ -3356,7 +3367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -3472,7 +3483,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -3588,7 +3599,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -3792,7 +3803,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -3894,7 +3905,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -3996,7 +4007,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30</v>
       </c>
@@ -4112,7 +4123,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -4228,7 +4239,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -4344,7 +4355,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -4446,7 +4457,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -4667,7 +4678,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -4786,7 +4797,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -5139,7 +5150,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5331,7 +5342,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>110</v>
       </c>
@@ -5449,7 +5460,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>110</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>110</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>180</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>180</v>
       </c>
@@ -5853,7 +5864,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>180</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>180</v>
       </c>
@@ -6091,7 +6102,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>180</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>180</v>
       </c>
@@ -6329,7 +6340,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>180</v>
       </c>
@@ -6430,7 +6441,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>180</v>
       </c>
@@ -6531,7 +6542,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>180</v>
       </c>
@@ -6605,7 +6616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>180</v>
       </c>
@@ -6676,7 +6687,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>180</v>
       </c>
@@ -6777,7 +6788,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>180</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>180</v>
       </c>
@@ -6949,7 +6960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>180</v>
       </c>
@@ -7020,7 +7031,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>180</v>
       </c>
@@ -7139,7 +7150,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>180</v>
       </c>
@@ -7240,7 +7251,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>180</v>
       </c>
@@ -7341,7 +7352,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>180</v>
       </c>
@@ -7460,7 +7471,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>180</v>
       </c>
@@ -7579,7 +7590,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>180</v>
       </c>
@@ -7680,7 +7691,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>180</v>
       </c>
@@ -7781,7 +7792,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>180</v>
       </c>
@@ -7900,7 +7911,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>165</v>
       </c>
@@ -8019,7 +8030,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>165</v>
       </c>
@@ -8120,7 +8131,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>165</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>165</v>
       </c>
@@ -8340,7 +8351,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>165</v>
       </c>
@@ -8452,7 +8463,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>165</v>
       </c>
@@ -8536,7 +8547,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>165</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>165</v>
       </c>
@@ -8732,7 +8743,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>165</v>
       </c>
@@ -8833,7 +8844,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>165</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>165</v>
       </c>
@@ -9032,7 +9043,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>165</v>
       </c>
@@ -9144,7 +9155,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>165</v>
       </c>
@@ -9228,7 +9239,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>165</v>
       </c>
@@ -9329,7 +9340,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>165</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>165</v>
       </c>
@@ -9542,7 +9553,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>165</v>
       </c>
@@ -9654,7 +9665,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>165</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>165</v>
       </c>
@@ -9875,7 +9886,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>165</v>
       </c>
@@ -9982,7 +9993,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>165</v>
       </c>
@@ -10100,7 +10111,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>165</v>
       </c>
@@ -10218,7 +10229,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="79" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>165</v>
       </c>
@@ -10325,7 +10336,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>165</v>
       </c>
@@ -10432,7 +10443,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>165</v>
       </c>
@@ -10533,7 +10544,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>165</v>
       </c>
@@ -10634,7 +10645,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>240</v>
       </c>
@@ -10735,7 +10746,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>240</v>
       </c>
@@ -10836,7 +10847,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>240</v>
       </c>
@@ -10948,7 +10959,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>240</v>
       </c>
@@ -11060,7 +11071,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>240</v>
       </c>
@@ -11161,7 +11172,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>240</v>
       </c>
@@ -11262,7 +11273,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>240</v>
       </c>
@@ -11363,7 +11374,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>240</v>
       </c>
@@ -11464,7 +11475,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>240</v>
       </c>
@@ -11576,7 +11587,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>240</v>
       </c>
@@ -11688,7 +11699,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>240</v>
       </c>
@@ -11800,7 +11811,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>240</v>
       </c>
@@ -11901,7 +11912,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>240</v>
       </c>
@@ -12002,7 +12013,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>240</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>240</v>
       </c>
@@ -12226,7 +12237,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>240</v>
       </c>
@@ -12327,7 +12338,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>240</v>
       </c>
@@ -12428,7 +12439,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>240</v>
       </c>
@@ -12539,7 +12550,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="101" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>240</v>
       </c>
@@ -12644,7 +12655,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="102" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>240</v>
       </c>
@@ -12759,7 +12770,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="103" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>240</v>
       </c>
@@ -12874,7 +12885,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="104" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>240</v>
       </c>
@@ -12984,7 +12995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>240</v>
       </c>
@@ -13094,7 +13105,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>240</v>
       </c>
@@ -13212,7 +13223,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="107" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>240</v>
       </c>
@@ -13327,7 +13338,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="108" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>240</v>
       </c>
@@ -13437,7 +13448,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>240</v>
       </c>
@@ -13547,7 +13558,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>240</v>
       </c>
@@ -13662,7 +13673,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="111" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>240</v>
       </c>
@@ -13774,7 +13785,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="112" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>240</v>
       </c>
@@ -13837,17 +13848,17 @@
         <f>VLOOKUP(Table!$I112,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T112" s="74">
+      <c r="T112" s="86">
         <v>2.730793127612784E-2</v>
       </c>
       <c r="U112" s="14"/>
-      <c r="V112" s="57">
+      <c r="V112" s="74">
         <v>64.571863745326453</v>
       </c>
       <c r="W112" s="14">
         <v>0</v>
       </c>
-      <c r="X112" s="14">
+      <c r="X112" s="85">
         <v>-2.8658521040016382E-5</v>
       </c>
       <c r="Y112" s="55">
@@ -13857,7 +13868,7 @@
         <v>8.5544975820269045</v>
       </c>
       <c r="AA112" s="55">
-        <v>150</v>
+        <v>178.58</v>
       </c>
       <c r="AB112" s="26"/>
       <c r="AC112">
@@ -13886,7 +13897,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="113" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>240</v>
       </c>
@@ -13949,17 +13960,17 @@
         <f>VLOOKUP(Table!$I113,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T113" s="74">
+      <c r="T113" s="86">
         <v>2.7310518252156833E-2</v>
       </c>
       <c r="U113" s="14"/>
-      <c r="V113" s="57">
+      <c r="V113" s="74">
         <v>48.667549878467497</v>
       </c>
       <c r="W113" s="14">
         <v>0</v>
       </c>
-      <c r="X113" s="14">
+      <c r="X113" s="85">
         <v>-1.8682918692733237E-5</v>
       </c>
       <c r="Y113" s="55">
@@ -13969,7 +13980,7 @@
         <v>11.821592957513696</v>
       </c>
       <c r="AA113" s="55">
-        <v>150</v>
+        <v>178.85</v>
       </c>
       <c r="AB113" s="26"/>
       <c r="AC113">
@@ -13998,7 +14009,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="114" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>240</v>
       </c>
@@ -14096,7 +14107,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>240</v>
       </c>
@@ -14194,7 +14205,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>240</v>
       </c>
@@ -14257,11 +14268,11 @@
         <f>VLOOKUP(Table!$I116,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T116" s="74"/>
+      <c r="T116" s="86"/>
       <c r="U116" s="14"/>
-      <c r="V116" s="57"/>
+      <c r="V116" s="74"/>
       <c r="W116" s="14"/>
-      <c r="X116" s="14"/>
+      <c r="X116" s="85"/>
       <c r="Y116" s="55"/>
       <c r="Z116"/>
       <c r="AA116" s="55"/>
@@ -14292,7 +14303,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="117" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>240</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="118" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>240</v>
       </c>
@@ -14450,14 +14461,31 @@
         <f>VLOOKUP(Table!$I118,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T118" s="74"/>
+      <c r="T118" s="86">
+        <f>0.185199234917307*AA118/1000</f>
+        <v>3.3075926092693955E-2</v>
+      </c>
       <c r="U118" s="14"/>
-      <c r="V118" s="57"/>
-      <c r="W118" s="14"/>
-      <c r="X118" s="14"/>
-      <c r="Y118" s="55"/>
-      <c r="Z118"/>
-      <c r="AA118" s="55"/>
+      <c r="V118" s="74">
+        <v>35.144819448040302</v>
+      </c>
+      <c r="W118" s="14">
+        <v>0</v>
+      </c>
+      <c r="X118" s="85">
+        <f>-0.00013143023757663*AA118/1000</f>
+        <v>-2.3472973991338962E-5</v>
+      </c>
+      <c r="Y118" s="55">
+        <v>739.69819442511766</v>
+      </c>
+      <c r="Z118">
+        <f>71.7501666751646*AA118/1000</f>
+        <v>12.814325130154412</v>
+      </c>
+      <c r="AA118" s="55">
+        <v>178.59645104615379</v>
+      </c>
       <c r="AB118" s="26"/>
       <c r="AC118">
         <f t="shared" si="191"/>
@@ -14468,24 +14496,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF118" s="57" t="e">
+      <c r="AF118" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG118" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH118" s="26" t="e">
+      <c r="AH118" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI118" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -14597,7 +14625,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>240</v>
       </c>
@@ -14660,14 +14688,31 @@
         <f>VLOOKUP(Table!$I120,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T120" s="74"/>
+      <c r="T120" s="86">
+        <f>0.18518906186706*AA120/1000</f>
+        <v>3.3098104053540217E-2</v>
+      </c>
       <c r="U120" s="14"/>
-      <c r="V120" s="57"/>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="55"/>
-      <c r="Z120"/>
-      <c r="AA120" s="55"/>
+      <c r="V120" s="74">
+        <v>35.488116139502267</v>
+      </c>
+      <c r="W120" s="14">
+        <v>0</v>
+      </c>
+      <c r="X120" s="85">
+        <f>-0.000132133901370005*AA120/1000</f>
+        <v>-2.3615766354948793E-5</v>
+      </c>
+      <c r="Y120" s="55">
+        <v>736.25097845932487</v>
+      </c>
+      <c r="Z120">
+        <f>71.4588194674457*AA120/1000</f>
+        <v>12.771550427608478</v>
+      </c>
+      <c r="AA120" s="55">
+        <v>178.72602042392793</v>
+      </c>
       <c r="AB120" s="26"/>
       <c r="AC120">
         <f t="shared" si="191"/>
@@ -14678,24 +14723,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF120" s="57" t="e">
+      <c r="AF120" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG120" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH120" s="26" t="e">
+      <c r="AH120" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI120" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>240</v>
       </c>
@@ -14758,14 +14803,31 @@
         <f>VLOOKUP(Table!$I121,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T121" s="74"/>
+      <c r="T121" s="86">
+        <f>0.18622624225584*AA121/1000</f>
+        <v>3.3124998666137828E-2</v>
+      </c>
       <c r="U121" s="14"/>
-      <c r="V121" s="57"/>
-      <c r="W121" s="14"/>
-      <c r="X121" s="14"/>
-      <c r="Y121" s="55"/>
-      <c r="Z121"/>
-      <c r="AA121" s="55"/>
+      <c r="V121" s="74">
+        <v>31.967364083913196</v>
+      </c>
+      <c r="W121" s="14">
+        <v>0</v>
+      </c>
+      <c r="X121" s="85">
+        <f>-0.000125702841325427*AA121/1000</f>
+        <v>-2.2359396832558517E-5</v>
+      </c>
+      <c r="Y121" s="55">
+        <v>772.70735170967669</v>
+      </c>
+      <c r="Z121">
+        <f>74.9257742802633*AA121/1000</f>
+        <v>13.327424443668779</v>
+      </c>
+      <c r="AA121" s="55">
+        <v>177.87503127851485</v>
+      </c>
       <c r="AB121" s="26"/>
       <c r="AC121">
         <f t="shared" si="191"/>
@@ -14776,24 +14838,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF121" s="57" t="e">
+      <c r="AF121" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG121" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH121" s="26" t="e">
+      <c r="AH121" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI121" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="122" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>240</v>
       </c>
@@ -14891,7 +14953,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="123" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>240</v>
       </c>
@@ -14989,7 +15051,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="124" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>240</v>
       </c>
@@ -15052,17 +15114,17 @@
         <f>VLOOKUP(Table!$I124,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T124" s="74">
+      <c r="T124" s="86">
         <v>2.7358075276655028E-2</v>
       </c>
       <c r="U124" s="14"/>
-      <c r="V124" s="57">
+      <c r="V124" s="74">
         <v>58.072027039869383</v>
       </c>
       <c r="W124" s="14">
         <v>0</v>
       </c>
-      <c r="X124" s="14">
+      <c r="X124" s="85">
         <v>-2.5730879737073587E-5</v>
       </c>
       <c r="Y124" s="55">
@@ -15072,7 +15134,7 @@
         <v>9.2803794680589853</v>
       </c>
       <c r="AA124" s="55">
-        <v>150</v>
+        <v>178.11</v>
       </c>
       <c r="AB124" s="26"/>
       <c r="AC124">
@@ -15101,7 +15163,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="125" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>240</v>
       </c>
@@ -15164,17 +15226,17 @@
         <f>VLOOKUP(Table!$I125,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T125" s="74">
+      <c r="T125" s="86">
         <v>2.7347230397275487E-2</v>
       </c>
       <c r="U125" s="14"/>
-      <c r="V125" s="57">
+      <c r="V125" s="74">
         <v>54.960873920921749</v>
       </c>
       <c r="W125" s="14">
         <v>0</v>
       </c>
-      <c r="X125" s="14">
+      <c r="X125" s="85">
         <v>-1.8371491690119054E-5</v>
       </c>
       <c r="Y125" s="55">
@@ -15184,7 +15246,7 @@
         <v>12.091309398312097</v>
       </c>
       <c r="AA125" s="55">
-        <v>150</v>
+        <v>178.64</v>
       </c>
       <c r="AB125" s="26"/>
       <c r="AC125">
@@ -15213,7 +15275,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="126" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>240</v>
       </c>
@@ -15325,7 +15387,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="127" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>240</v>
       </c>
@@ -15388,14 +15450,31 @@
         <f>VLOOKUP(Table!$I127,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T127" s="74"/>
+      <c r="T127" s="86">
+        <f>0.184381367953734*AA127/1000</f>
+        <v>3.3064823732394957E-2</v>
+      </c>
       <c r="U127" s="14"/>
-      <c r="V127" s="57"/>
-      <c r="W127" s="14"/>
-      <c r="X127" s="14"/>
-      <c r="Y127" s="55"/>
-      <c r="Z127"/>
-      <c r="AA127" s="55"/>
+      <c r="V127" s="74">
+        <v>34.569548247827697</v>
+      </c>
+      <c r="W127" s="14">
+        <v>0</v>
+      </c>
+      <c r="X127" s="85">
+        <f>-0.000134376380084688*AA127/1000</f>
+        <v>-2.4097507088744519E-5</v>
+      </c>
+      <c r="Y127" s="55">
+        <v>720.63270844581609</v>
+      </c>
+      <c r="Z127">
+        <f>69.6226125854607*AA127/1000</f>
+        <v>12.485314749941146</v>
+      </c>
+      <c r="AA127" s="55">
+        <v>179.328443537157</v>
+      </c>
       <c r="AB127" s="26"/>
       <c r="AC127">
         <f t="shared" si="191"/>
@@ -15406,24 +15485,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF127" s="57" t="e">
+      <c r="AF127" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG127" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH127" s="26" t="e">
+      <c r="AH127" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI127" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>240</v>
       </c>
@@ -15486,14 +15565,31 @@
         <f>VLOOKUP(Table!$I128,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T128" s="74"/>
+      <c r="T128" s="86">
+        <f>0.185491179297525*AA128/1000</f>
+        <v>3.3044404457498837E-2</v>
+      </c>
       <c r="U128" s="14"/>
-      <c r="V128" s="57"/>
-      <c r="W128" s="14"/>
-      <c r="X128" s="14"/>
-      <c r="Y128" s="55"/>
-      <c r="Z128"/>
-      <c r="AA128" s="55"/>
+      <c r="V128" s="74">
+        <v>37.211245709818627</v>
+      </c>
+      <c r="W128" s="14">
+        <v>0</v>
+      </c>
+      <c r="X128" s="85">
+        <f>-0.000136115647499107*AA128/1000</f>
+        <v>-2.4248379497012803E-5</v>
+      </c>
+      <c r="Y128" s="55">
+        <v>718.58470535831998</v>
+      </c>
+      <c r="Z128">
+        <f>70.0967411359619*AA128/1000</f>
+        <v>12.487413547217809</v>
+      </c>
+      <c r="AA128" s="55">
+        <v>178.14542223862901</v>
+      </c>
       <c r="AB128" s="26"/>
       <c r="AC128">
         <f t="shared" si="191"/>
@@ -15504,24 +15600,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF128" s="57" t="e">
+      <c r="AF128" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG128" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH128" s="26" t="e">
+      <c r="AH128" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI128" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="129" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>240</v>
       </c>
@@ -15619,7 +15715,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="130" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>240</v>
       </c>
@@ -15717,7 +15813,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="131" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>240</v>
       </c>
@@ -15780,14 +15876,31 @@
         <f>VLOOKUP(Table!$I131,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T131" s="74"/>
+      <c r="T131" s="86">
+        <f>0.185499667122834*AA131/1000</f>
+        <v>3.3078058199193669E-2</v>
+      </c>
       <c r="U131" s="14"/>
-      <c r="V131" s="57"/>
-      <c r="W131" s="14"/>
-      <c r="X131" s="14"/>
-      <c r="Y131" s="55"/>
-      <c r="Z131"/>
-      <c r="AA131" s="55"/>
+      <c r="V131" s="74">
+        <v>34.612036651059327</v>
+      </c>
+      <c r="W131" s="14">
+        <v>0</v>
+      </c>
+      <c r="X131" s="85">
+        <f>-0.000131185492224321*AA131/1000</f>
+        <v>-2.3392825518185567E-5</v>
+      </c>
+      <c r="Y131" s="55">
+        <v>741.62492343292297</v>
+      </c>
+      <c r="Z131">
+        <f>71.9958488520096*AA131/1000</f>
+        <v>12.838205671011561</v>
+      </c>
+      <c r="AA131" s="55">
+        <v>178.318693031886</v>
+      </c>
       <c r="AB131" s="26"/>
       <c r="AC131">
         <f t="shared" si="191"/>
@@ -15798,24 +15911,24 @@
         <f t="shared" si="192"/>
         <v>T</v>
       </c>
-      <c r="AF131" s="57" t="e">
+      <c r="AF131" s="57">
         <f t="shared" si="193"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG131" s="56" t="str">
         <f t="shared" si="194"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH131" s="26" t="e">
+      <c r="AH131" s="26">
         <f t="shared" si="195"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI131" t="str">
         <f t="shared" si="196"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="132" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>240</v>
       </c>
@@ -15910,7 +16023,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="133" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>240</v>
       </c>
@@ -15973,17 +16086,17 @@
         <f>VLOOKUP(Table!$I133,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T133" s="74">
+      <c r="T133" s="86">
         <v>2.7268443068279823E-2</v>
       </c>
       <c r="U133" s="14"/>
-      <c r="V133" s="57">
+      <c r="V133" s="74">
         <v>75.698494306838157</v>
       </c>
       <c r="W133" s="14">
         <v>0</v>
       </c>
-      <c r="X133" s="14">
+      <c r="X133" s="85">
         <v>-3.8718409593788144E-5</v>
       </c>
       <c r="Y133" s="55">
@@ -15993,7 +16106,7 @@
         <v>6.9865638537714263</v>
       </c>
       <c r="AA133" s="55">
-        <v>150</v>
+        <v>178.6</v>
       </c>
       <c r="AB133" s="26"/>
       <c r="AC133">
@@ -16022,7 +16135,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="134" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>240</v>
       </c>
@@ -16134,7 +16247,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="135" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>240</v>
       </c>
@@ -16197,17 +16310,17 @@
         <f>VLOOKUP(Table!$I135,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T135" s="74">
+      <c r="T135" s="86">
         <v>2.7312783620680469E-2</v>
       </c>
       <c r="U135" s="14"/>
-      <c r="V135" s="57">
+      <c r="V135" s="74">
         <v>63.471820934094538</v>
       </c>
       <c r="W135" s="14">
         <v>0</v>
       </c>
-      <c r="X135" s="14">
+      <c r="X135" s="85">
         <v>-2.5006263844227178E-5</v>
       </c>
       <c r="Y135" s="55">
@@ -16217,7 +16330,7 @@
         <v>9.4772967036673084</v>
       </c>
       <c r="AA135" s="55">
-        <v>150</v>
+        <v>178.51</v>
       </c>
       <c r="AB135" s="26"/>
       <c r="AC135">
@@ -16246,7 +16359,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="136" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>240</v>
       </c>
@@ -16309,17 +16422,17 @@
         <f>VLOOKUP(Table!$I136,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T136" s="74">
+      <c r="T136" s="86">
         <v>2.7181533756454018E-2</v>
       </c>
       <c r="U136" s="14"/>
-      <c r="V136" s="57">
+      <c r="V136" s="74">
         <v>47.793518420485952</v>
       </c>
       <c r="W136" s="14">
         <v>0</v>
       </c>
-      <c r="X136" s="14">
+      <c r="X136" s="85">
         <v>-2.0373864061066511E-5</v>
       </c>
       <c r="Y136" s="55">
@@ -16329,7 +16442,7 @@
         <v>11.082786757245914</v>
       </c>
       <c r="AA136" s="55">
-        <v>150</v>
+        <v>178.08</v>
       </c>
       <c r="AB136" s="26"/>
       <c r="AC136">
@@ -16358,7 +16471,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="137" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>240</v>
       </c>
@@ -16456,7 +16569,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="138" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>240</v>
       </c>
@@ -16554,7 +16667,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="139" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>240</v>
       </c>
@@ -16617,17 +16730,17 @@
         <f>VLOOKUP(Table!$I139,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T139" s="74">
+      <c r="T139" s="86">
         <v>2.7252835564738349E-2</v>
       </c>
       <c r="U139" s="14"/>
-      <c r="V139" s="57">
+      <c r="V139" s="74">
         <v>57.502732241243422</v>
       </c>
       <c r="W139" s="14">
         <v>0</v>
       </c>
-      <c r="X139" s="14">
+      <c r="X139" s="85">
         <v>-2.5835693766931757E-5</v>
       </c>
       <c r="Y139" s="55">
@@ -16637,7 +16750,7 @@
         <v>9.1795210062442791</v>
       </c>
       <c r="AA139" s="55">
-        <v>150</v>
+        <v>178.77</v>
       </c>
       <c r="AB139" s="26"/>
       <c r="AC139">
@@ -16666,7 +16779,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="140" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>240</v>
       </c>
@@ -16729,17 +16842,17 @@
         <f>VLOOKUP(Table!$I140,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T140" s="74">
+      <c r="T140" s="86">
         <v>2.7353292239417452E-2</v>
       </c>
       <c r="U140" s="14"/>
-      <c r="V140" s="57">
+      <c r="V140" s="74">
         <v>77.15153542455316</v>
       </c>
       <c r="W140" s="14">
         <v>0</v>
       </c>
-      <c r="X140" s="14">
+      <c r="X140" s="85">
         <v>-3.9020089285712371E-5</v>
       </c>
       <c r="Y140" s="55">
@@ -16749,7 +16862,7 @@
         <v>7.0287009727304248</v>
       </c>
       <c r="AA140" s="55">
-        <v>150</v>
+        <v>178.08</v>
       </c>
       <c r="AB140" s="26"/>
       <c r="AC140">
@@ -16778,7 +16891,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="141" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>240</v>
       </c>
@@ -16820,7 +16933,7 @@
       </c>
       <c r="N141" s="5">
         <f>VLOOKUP(Table!$I141,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O141" s="13">
         <f t="shared" si="190"/>
@@ -16876,7 +16989,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="142" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>240</v>
       </c>
@@ -16918,7 +17031,7 @@
       </c>
       <c r="N142" s="5">
         <f>VLOOKUP(Table!$I142,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O142" s="13">
         <f t="shared" si="190"/>
@@ -16974,7 +17087,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="143" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>240</v>
       </c>
@@ -17016,7 +17129,7 @@
       </c>
       <c r="N143" s="5">
         <f>VLOOKUP(Table!$I143,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O143" s="13">
         <f t="shared" si="190"/>
@@ -17072,7 +17185,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="144" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>240</v>
       </c>
@@ -17114,7 +17227,7 @@
       </c>
       <c r="N144" s="5">
         <f>VLOOKUP(Table!$I144,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O144" s="13">
         <f t="shared" ref="O144:O170" si="199">(N144*M144)/1000</f>
@@ -17170,7 +17283,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="145" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>240</v>
       </c>
@@ -17212,7 +17325,7 @@
       </c>
       <c r="N145" s="5">
         <f>VLOOKUP(Table!$I145,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O145" s="13">
         <f t="shared" si="199"/>
@@ -17233,17 +17346,17 @@
         <f>VLOOKUP(Table!$I145,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T145" s="74">
+      <c r="T145" s="86">
         <v>2.6242308819220624E-2</v>
       </c>
       <c r="U145" s="14"/>
-      <c r="V145" s="57">
+      <c r="V145" s="74">
         <v>21.628457870458096</v>
       </c>
       <c r="W145" s="14">
         <v>0</v>
       </c>
-      <c r="X145" s="14">
+      <c r="X145" s="85">
         <v>-3.3264621947538455E-6</v>
       </c>
       <c r="Y145" s="55">
@@ -17282,7 +17395,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="146" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>240</v>
       </c>
@@ -17324,7 +17437,7 @@
       </c>
       <c r="N146" s="5">
         <f>VLOOKUP(Table!$I146,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O146" s="13">
         <f t="shared" si="199"/>
@@ -17382,7 +17495,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="147" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>240</v>
       </c>
@@ -17424,7 +17537,7 @@
       </c>
       <c r="N147" s="5">
         <f>VLOOKUP(Table!$I147,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O147" s="13">
         <f t="shared" si="199"/>
@@ -17482,7 +17595,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="148" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>240</v>
       </c>
@@ -17524,7 +17637,7 @@
       </c>
       <c r="N148" s="5">
         <f>VLOOKUP(Table!$I148,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O148" s="13">
         <f t="shared" si="199"/>
@@ -17545,17 +17658,17 @@
         <f>VLOOKUP(Table!$I148,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T148" s="74">
+      <c r="T148" s="86">
         <v>2.621007910928802E-2</v>
       </c>
       <c r="U148" s="14"/>
-      <c r="V148" s="57">
+      <c r="V148" s="74">
         <v>21.849693731232595</v>
       </c>
       <c r="W148" s="14">
         <v>0</v>
       </c>
-      <c r="X148" s="14">
+      <c r="X148" s="85">
         <v>-3.3205408182931224E-6</v>
       </c>
       <c r="Y148" s="55">
@@ -17594,7 +17707,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="149" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>240</v>
       </c>
@@ -17636,7 +17749,7 @@
       </c>
       <c r="N149" s="5">
         <f>VLOOKUP(Table!$I149,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O149" s="13">
         <f t="shared" si="199"/>
@@ -17694,7 +17807,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>240</v>
       </c>
@@ -17736,7 +17849,7 @@
       </c>
       <c r="N150" s="5">
         <f>VLOOKUP(Table!$I150,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O150" s="13">
         <f t="shared" si="199"/>
@@ -17794,7 +17907,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="151" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>600</v>
       </c>
@@ -17836,7 +17949,7 @@
       </c>
       <c r="N151" s="5">
         <f>VLOOKUP(Table!$I151,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O151" s="13">
         <f t="shared" si="199"/>
@@ -17857,17 +17970,17 @@
         <f>VLOOKUP(Table!$I151,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T151" s="74">
+      <c r="T151" s="86">
         <v>2.6784353940814524E-2</v>
       </c>
       <c r="U151" s="14"/>
-      <c r="V151" s="57">
+      <c r="V151" s="74">
         <v>18.98709636907472</v>
       </c>
       <c r="W151" s="14">
         <v>0</v>
       </c>
-      <c r="X151" s="14">
+      <c r="X151" s="85">
         <v>-9.6106532536160901E-6</v>
       </c>
       <c r="Y151" s="55">
@@ -17906,7 +18019,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>600</v>
       </c>
@@ -17948,7 +18061,7 @@
       </c>
       <c r="N152" s="5">
         <f>VLOOKUP(Table!$I152,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O152" s="13">
         <f t="shared" si="199"/>
@@ -18006,7 +18119,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="153" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>600</v>
       </c>
@@ -18048,7 +18161,7 @@
       </c>
       <c r="N153" s="5">
         <f>VLOOKUP(Table!$I153,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O153" s="13">
         <f t="shared" si="199"/>
@@ -18106,7 +18219,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="154" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>600</v>
       </c>
@@ -18148,7 +18261,7 @@
       </c>
       <c r="N154" s="5">
         <f>VLOOKUP(Table!$I154,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O154" s="13">
         <f t="shared" si="199"/>
@@ -18169,17 +18282,17 @@
         <f>VLOOKUP(Table!$I154,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T154" s="74">
+      <c r="T154" s="86">
         <v>2.6249633753296215E-2</v>
       </c>
       <c r="U154" s="14"/>
-      <c r="V154" s="57">
+      <c r="V154" s="74">
         <v>21.618806560300868</v>
       </c>
       <c r="W154" s="14">
         <v>0</v>
       </c>
-      <c r="X154" s="14">
+      <c r="X154" s="85">
         <v>-3.3368647976197701E-6</v>
       </c>
       <c r="Y154" s="55">
@@ -18218,7 +18331,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="155" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>600</v>
       </c>
@@ -18260,7 +18373,7 @@
       </c>
       <c r="N155" s="5">
         <f>VLOOKUP(Table!$I155,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O155" s="13">
         <f t="shared" si="199"/>
@@ -18318,7 +18431,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="156" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>600</v>
       </c>
@@ -18360,7 +18473,7 @@
       </c>
       <c r="N156" s="5">
         <f>VLOOKUP(Table!$I156,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O156" s="13">
         <f t="shared" si="199"/>
@@ -18418,7 +18531,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="157" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>600</v>
       </c>
@@ -18460,7 +18573,7 @@
       </c>
       <c r="N157" s="5">
         <f>VLOOKUP(Table!$I157,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O157" s="13">
         <f t="shared" si="199"/>
@@ -18481,17 +18594,17 @@
         <f>VLOOKUP(Table!$I157,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T157" s="74">
+      <c r="T157" s="86">
         <v>2.6218869030178723E-2</v>
       </c>
       <c r="U157" s="14"/>
-      <c r="V157" s="57">
+      <c r="V157" s="74">
         <v>21.382601919634698</v>
       </c>
       <c r="W157" s="14">
         <v>0</v>
       </c>
-      <c r="X157" s="14">
+      <c r="X157" s="85">
         <v>-3.3964117291842617E-6</v>
       </c>
       <c r="Y157" s="55">
@@ -18530,7 +18643,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="158" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>600</v>
       </c>
@@ -18572,7 +18685,7 @@
       </c>
       <c r="N158" s="5">
         <f>VLOOKUP(Table!$I158,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O158" s="13">
         <f t="shared" si="199"/>
@@ -18630,7 +18743,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="159" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>600</v>
       </c>
@@ -18672,7 +18785,7 @@
       </c>
       <c r="N159" s="5">
         <f>VLOOKUP(Table!$I159,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O159" s="13">
         <f t="shared" si="199"/>
@@ -18730,7 +18843,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="160" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>600</v>
       </c>
@@ -18772,7 +18885,7 @@
       </c>
       <c r="N160" s="5">
         <f>VLOOKUP(Table!$I160,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O160" s="13">
         <f t="shared" si="199"/>
@@ -18793,17 +18906,17 @@
         <f>VLOOKUP(Table!$I160,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T160" s="74">
+      <c r="T160" s="86">
         <v>2.6226193964254324E-2</v>
       </c>
       <c r="U160" s="14"/>
-      <c r="V160" s="57">
+      <c r="V160" s="74">
         <v>21.131061590225194</v>
       </c>
       <c r="W160" s="14">
         <v>0</v>
       </c>
-      <c r="X160" s="14">
+      <c r="X160" s="85">
         <v>-3.187375376391955E-6</v>
       </c>
       <c r="Y160" s="55">
@@ -18842,7 +18955,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>600</v>
       </c>
@@ -18884,7 +18997,7 @@
       </c>
       <c r="N161" s="5">
         <f>VLOOKUP(Table!$I161,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O161" s="13">
         <f t="shared" si="199"/>
@@ -18942,7 +19055,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>600</v>
       </c>
@@ -18984,7 +19097,7 @@
       </c>
       <c r="N162" s="5">
         <f>VLOOKUP(Table!$I162,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O162" s="13">
         <f t="shared" si="199"/>
@@ -19042,7 +19155,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>600</v>
       </c>
@@ -19084,7 +19197,7 @@
       </c>
       <c r="N163" s="5">
         <f>VLOOKUP(Table!$I163,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O163" s="13">
         <f t="shared" si="199"/>
@@ -19105,17 +19218,17 @@
         <f>VLOOKUP(Table!$I163,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T163" s="74">
+      <c r="T163" s="86">
         <v>2.6215939056548489E-2</v>
       </c>
       <c r="U163" s="14"/>
-      <c r="V163" s="57">
+      <c r="V163" s="74">
         <v>21.373478687435771</v>
       </c>
       <c r="W163" s="14">
         <v>0</v>
       </c>
-      <c r="X163" s="14">
+      <c r="X163" s="85">
         <v>-3.1031560337693933E-6</v>
       </c>
       <c r="Y163" s="55">
@@ -19154,7 +19267,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>600</v>
       </c>
@@ -19196,7 +19309,7 @@
       </c>
       <c r="N164" s="5">
         <f>VLOOKUP(Table!$I164,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O164" s="13">
         <f t="shared" si="199"/>
@@ -19254,7 +19367,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>600</v>
       </c>
@@ -19296,7 +19409,7 @@
       </c>
       <c r="N165" s="5">
         <f>VLOOKUP(Table!$I165,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O165" s="13">
         <f t="shared" si="199"/>
@@ -19354,7 +19467,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="166" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>600</v>
       </c>
@@ -19396,7 +19509,7 @@
       </c>
       <c r="N166" s="5">
         <f>VLOOKUP(Table!$I166,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O166" s="13">
         <f t="shared" si="199"/>
@@ -19417,17 +19530,17 @@
         <f>VLOOKUP(Table!$I166,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T166" s="74">
+      <c r="T166" s="86">
         <v>2.6325036603221084E-2</v>
       </c>
       <c r="U166" s="14"/>
-      <c r="V166" s="57">
+      <c r="V166" s="74">
         <v>22.766996524425227</v>
       </c>
       <c r="W166" s="14">
         <v>0</v>
       </c>
-      <c r="X166" s="14">
+      <c r="X166" s="85">
         <v>-4.8684772013435149E-6</v>
       </c>
       <c r="Y166" s="55">
@@ -19466,7 +19579,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="167" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>600</v>
       </c>
@@ -19508,7 +19621,7 @@
       </c>
       <c r="N167" s="5">
         <f>VLOOKUP(Table!$I167,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O167" s="13">
         <f t="shared" si="199"/>
@@ -19566,7 +19679,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="168" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>600</v>
       </c>
@@ -19608,7 +19721,7 @@
       </c>
       <c r="N168" s="5">
         <f>VLOOKUP(Table!$I168,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O168" s="13">
         <f t="shared" si="199"/>
@@ -19666,7 +19779,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="169" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>600</v>
       </c>
@@ -19729,17 +19842,17 @@
         <f>VLOOKUP(Table!$I169,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T169" s="74">
+      <c r="T169" s="86">
         <v>2.7292923309957366E-2</v>
       </c>
       <c r="U169" s="14"/>
-      <c r="V169" s="57">
+      <c r="V169" s="74">
         <v>65.236218664044884</v>
       </c>
       <c r="W169" s="14">
         <v>0</v>
       </c>
-      <c r="X169" s="14">
+      <c r="X169" s="85">
         <v>-2.694747664770561E-5</v>
       </c>
       <c r="Y169" s="55">
@@ -19749,7 +19862,7 @@
         <v>8.962548320478291</v>
       </c>
       <c r="AA169" s="55">
-        <v>150</v>
+        <v>178.92</v>
       </c>
       <c r="AB169" s="26"/>
       <c r="AC169">
@@ -19778,7 +19891,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="170" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>600</v>
       </c>
@@ -19841,17 +19954,17 @@
         <f>VLOOKUP(Table!$I170,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>9.2000000000000028</v>
       </c>
-      <c r="T170" s="74">
+      <c r="T170" s="86">
         <v>2.7428898200074069E-2</v>
       </c>
       <c r="U170" s="14"/>
-      <c r="V170" s="57">
+      <c r="V170" s="74">
         <v>55.363938719918508</v>
       </c>
       <c r="W170" s="14">
         <v>0</v>
       </c>
-      <c r="X170" s="14">
+      <c r="X170" s="85">
         <v>-2.1489882671413584E-5</v>
       </c>
       <c r="Y170" s="55">
@@ -19861,7 +19974,7 @@
         <v>10.653781380526469</v>
       </c>
       <c r="AA170" s="55">
-        <v>150</v>
+        <v>178.67</v>
       </c>
       <c r="AB170" s="26"/>
       <c r="AC170">
@@ -19890,7 +20003,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="171" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>600</v>
       </c>
@@ -19932,7 +20045,7 @@
       </c>
       <c r="N171" s="5">
         <f>VLOOKUP(Table!$I171,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O171" s="13">
         <f t="shared" ref="O171:O174" si="207">(N171*M171)/1000</f>
@@ -19988,7 +20101,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="172" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>600</v>
       </c>
@@ -20030,7 +20143,7 @@
       </c>
       <c r="N172" s="5">
         <f>VLOOKUP(Table!$I172,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O172" s="13">
         <f t="shared" ref="O172" si="215">(N172*M172)/1000</f>
@@ -20086,7 +20199,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="173" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>600</v>
       </c>
@@ -20184,7 +20297,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="174" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>600</v>
       </c>
@@ -20226,7 +20339,7 @@
       </c>
       <c r="N174" s="5">
         <f>VLOOKUP(Table!$I174,Specs!$A:$R,MATCH(Table!N$3,Specs!$A$1:$R$1,0),FALSE)</f>
-        <v>0</v>
+        <v>176.4</v>
       </c>
       <c r="O174" s="13">
         <f t="shared" si="207"/>
@@ -20247,17 +20360,17 @@
         <f>VLOOKUP(Table!$I174,Specs!$A:$R,MATCH(Table!S$3,Specs!$A$1:$R$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T174" s="74">
+      <c r="T174" s="86">
         <v>2.6221799003808961E-2</v>
       </c>
       <c r="U174" s="14"/>
-      <c r="V174" s="57">
+      <c r="V174" s="74">
         <v>21.527626373656222</v>
       </c>
       <c r="W174" s="14">
         <v>0</v>
       </c>
-      <c r="X174" s="14">
+      <c r="X174" s="85">
         <v>-3.3199240491783043E-6</v>
       </c>
       <c r="Y174" s="55">
@@ -20296,7 +20409,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="175" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>240</v>
       </c>
@@ -20366,7 +20479,9 @@
       <c r="X175" s="14"/>
       <c r="Y175" s="55"/>
       <c r="Z175"/>
-      <c r="AA175" s="54"/>
+      <c r="AA175" s="54">
+        <v>179.12</v>
+      </c>
       <c r="AB175" s="26"/>
       <c r="AC175">
         <f t="shared" si="208"/>
@@ -20377,24 +20492,24 @@
         <f t="shared" si="209"/>
         <v>T</v>
       </c>
-      <c r="AF175" s="57" t="e">
+      <c r="AF175" s="57">
         <f t="shared" si="210"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG175" s="56" t="str">
         <f t="shared" si="211"/>
         <v>m⁻²</v>
       </c>
-      <c r="AH175" s="26" t="e">
+      <c r="AH175" s="26">
         <f t="shared" si="212"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI175" t="str">
         <f t="shared" si="213"/>
         <v>T/m</v>
       </c>
     </row>
-    <row r="176" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>240</v>
       </c>
@@ -20492,7 +20607,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="177" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>240</v>
       </c>
@@ -20590,7 +20705,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="178" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>240</v>
       </c>
@@ -20659,7 +20774,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="179" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>240</v>
       </c>
@@ -20728,7 +20843,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="180" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>240</v>
       </c>
@@ -20797,7 +20912,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="181" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>240</v>
       </c>
@@ -20866,7 +20981,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="182" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>240</v>
       </c>
@@ -20935,7 +21050,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="183" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>240</v>
       </c>
@@ -21004,7 +21119,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="184" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>240</v>
       </c>
@@ -21073,7 +21188,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="185" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>240</v>
       </c>
@@ -21142,7 +21257,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="186" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>240</v>
       </c>
@@ -21211,7 +21326,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="187" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>240</v>
       </c>
@@ -21280,7 +21395,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="188" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>240</v>
       </c>
@@ -21347,7 +21462,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="189" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>240</v>
       </c>
@@ -21416,7 +21531,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="190" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>240</v>
       </c>
@@ -21485,7 +21600,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="191" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>240</v>
       </c>
@@ -21556,7 +21671,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="192" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>240</v>
       </c>
@@ -21627,7 +21742,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="193" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>240</v>
       </c>
@@ -21698,7 +21813,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="194" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>240</v>
       </c>
@@ -21769,7 +21884,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="195" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>240</v>
       </c>
@@ -21840,7 +21955,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="196" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>240</v>
       </c>
@@ -21911,7 +22026,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="197" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>240</v>
       </c>
@@ -21982,7 +22097,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="198" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>240</v>
       </c>
@@ -22053,7 +22168,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="199" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>240</v>
       </c>
@@ -22124,7 +22239,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="200" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>240</v>
       </c>
@@ -22195,7 +22310,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="201" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>240</v>
       </c>
@@ -22266,7 +22381,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="202" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>240</v>
       </c>
@@ -22337,7 +22452,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="203" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>240</v>
       </c>
@@ -22408,7 +22523,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="204" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>240</v>
       </c>
@@ -22479,7 +22594,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="205" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>240</v>
       </c>
@@ -22550,7 +22665,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="206" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>240</v>
       </c>
@@ -22621,7 +22736,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="207" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>240</v>
       </c>
@@ -22692,7 +22807,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="208" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>240</v>
       </c>
@@ -22763,7 +22878,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="209" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>240</v>
       </c>
@@ -22834,7 +22949,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="210" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>240</v>
       </c>
@@ -22905,7 +23020,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="211" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>240</v>
       </c>
@@ -22976,7 +23091,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="212" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>240</v>
       </c>
@@ -23047,7 +23162,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="213" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>240</v>
       </c>
@@ -23118,7 +23233,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="214" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>240</v>
       </c>
@@ -23189,7 +23304,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="215" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>240</v>
       </c>
@@ -23260,7 +23375,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="216" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>240</v>
       </c>
@@ -23331,7 +23446,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="217" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>240</v>
       </c>
@@ -23402,7 +23517,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="218" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>240</v>
       </c>
@@ -23473,7 +23588,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="219" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>240</v>
       </c>
@@ -23544,7 +23659,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="220" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>240</v>
       </c>
@@ -23615,7 +23730,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="221" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>240</v>
       </c>
@@ -23686,7 +23801,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="222" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>240</v>
       </c>
@@ -23757,7 +23872,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="223" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>240</v>
       </c>
@@ -23828,7 +23943,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="224" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>240</v>
       </c>
@@ -23899,7 +24014,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="225" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>240</v>
       </c>
@@ -23970,7 +24085,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="226" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>240</v>
       </c>
@@ -24041,7 +24156,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="227" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>240</v>
       </c>
@@ -24112,7 +24227,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="228" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>240</v>
       </c>
@@ -24183,7 +24298,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="229" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>240</v>
       </c>
@@ -24254,7 +24369,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="230" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>240</v>
       </c>
@@ -24325,7 +24440,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="231" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>240</v>
       </c>
@@ -24396,7 +24511,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="232" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>240</v>
       </c>
@@ -24467,7 +24582,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="233" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>240</v>
       </c>
@@ -24538,7 +24653,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="234" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>240</v>
       </c>
@@ -24609,7 +24724,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="235" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>240</v>
       </c>
@@ -24680,7 +24795,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="236" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>240</v>
       </c>
@@ -24751,7 +24866,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="237" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>240</v>
       </c>
@@ -24822,7 +24937,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="238" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>240</v>
       </c>
@@ -24893,7 +25008,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="239" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>240</v>
       </c>
@@ -24964,7 +25079,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="240" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>240</v>
       </c>
@@ -25035,7 +25150,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="241" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -25106,7 +25221,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="242" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -25177,7 +25292,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="243" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>240</v>
       </c>
@@ -25246,7 +25361,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="244" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>240</v>
       </c>
@@ -25315,7 +25430,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="245" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>240</v>
       </c>
@@ -25384,7 +25499,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="246" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>240</v>
       </c>
@@ -25453,7 +25568,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="247" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>240</v>
       </c>
@@ -25522,7 +25637,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="248" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>240</v>
       </c>
@@ -25591,7 +25706,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="249" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>240</v>
       </c>
@@ -25660,7 +25775,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="250" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>240</v>
       </c>
@@ -25729,7 +25844,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="251" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>240</v>
       </c>
@@ -25798,7 +25913,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="252" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>240</v>
       </c>
@@ -25867,7 +25982,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="253" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>240</v>
       </c>
@@ -25936,7 +26051,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="254" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>240</v>
       </c>
@@ -26005,7 +26120,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="255" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>240</v>
       </c>
@@ -26074,7 +26189,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="256" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>240</v>
       </c>
@@ -26143,7 +26258,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="257" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>240</v>
       </c>
@@ -26212,7 +26327,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="258" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>240</v>
       </c>
@@ -26281,7 +26396,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="259" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>240</v>
       </c>
@@ -26350,7 +26465,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="260" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>240</v>
       </c>
@@ -26419,7 +26534,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="261" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>240</v>
       </c>
@@ -26513,7 +26628,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="262" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>240</v>
       </c>
@@ -26607,7 +26722,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="263" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>240</v>
       </c>
@@ -26701,7 +26816,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="264" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>240</v>
       </c>
@@ -26793,7 +26908,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="265" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>240</v>
       </c>
@@ -26885,7 +27000,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="266" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>240</v>
       </c>
@@ -26979,7 +27094,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="267" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>240</v>
       </c>
@@ -27073,7 +27188,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="268" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>240</v>
       </c>
@@ -27167,7 +27282,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="269" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>240</v>
       </c>
@@ -27259,7 +27374,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="270" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>240</v>
       </c>
@@ -27353,7 +27468,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="271" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>240</v>
       </c>
@@ -27447,7 +27562,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="272" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>240</v>
       </c>
@@ -27537,7 +27652,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="273" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>240</v>
       </c>
@@ -27606,7 +27721,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="274" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>240</v>
       </c>
@@ -27673,7 +27788,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="275" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>240</v>
       </c>
@@ -27742,7 +27857,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="276" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:35" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>240</v>
       </c>
@@ -27811,7 +27926,7 @@
         <v>T/m</v>
       </c>
     </row>
-    <row r="277" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:35" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>240</v>
       </c>
@@ -27901,7 +28016,7 @@
         <v>mT</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B278" s="38"/>
       <c r="O278" s="13"/>
       <c r="P278" s="19"/>
@@ -27911,7 +28026,7 @@
       <c r="T278" s="74"/>
       <c r="V278" s="57"/>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B279" s="38"/>
       <c r="O279" s="13"/>
       <c r="P279" s="19"/>
@@ -27921,7 +28036,7 @@
       <c r="T279" s="74"/>
       <c r="V279" s="57"/>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B280" s="38"/>
       <c r="O280" s="13"/>
       <c r="P280" s="19"/>
@@ -27931,7 +28046,7 @@
       <c r="T280" s="74"/>
       <c r="V280" s="57"/>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B281" s="38"/>
       <c r="O281" s="13"/>
       <c r="P281" s="19"/>
@@ -27941,7 +28056,7 @@
       <c r="T281" s="74"/>
       <c r="V281" s="57"/>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B282" s="38"/>
       <c r="O282" s="13"/>
       <c r="P282" s="19"/>
@@ -27951,7 +28066,7 @@
       <c r="T282" s="74"/>
       <c r="V282" s="57"/>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B283" s="38"/>
       <c r="O283" s="13"/>
       <c r="P283" s="19"/>
@@ -27961,7 +28076,7 @@
       <c r="T283" s="74"/>
       <c r="V283" s="57"/>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B284" s="38"/>
       <c r="O284" s="13"/>
       <c r="P284" s="19"/>
@@ -27971,7 +28086,7 @@
       <c r="T284" s="74"/>
       <c r="V284" s="57"/>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B285" s="38"/>
       <c r="O285" s="13"/>
       <c r="P285" s="19"/>
@@ -27981,7 +28096,7 @@
       <c r="T285" s="74"/>
       <c r="V285" s="57"/>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B286" s="38"/>
       <c r="O286" s="13"/>
       <c r="P286" s="19"/>
@@ -27991,7 +28106,7 @@
       <c r="T286" s="74"/>
       <c r="V286" s="57"/>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B287" s="38"/>
       <c r="O287" s="13"/>
       <c r="P287" s="19"/>
@@ -28001,7 +28116,7 @@
       <c r="T287" s="74"/>
       <c r="V287" s="57"/>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B288" s="38"/>
       <c r="O288" s="13"/>
       <c r="P288" s="19"/>
@@ -28011,7 +28126,7 @@
       <c r="T288" s="74"/>
       <c r="V288" s="57"/>
     </row>
-    <row r="289" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B289" s="38"/>
       <c r="O289" s="13"/>
       <c r="P289" s="19"/>
@@ -28021,7 +28136,7 @@
       <c r="T289" s="74"/>
       <c r="V289" s="57"/>
     </row>
-    <row r="290" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B290" s="38"/>
       <c r="O290" s="13"/>
       <c r="P290" s="19"/>
@@ -28031,7 +28146,7 @@
       <c r="T290" s="74"/>
       <c r="V290" s="57"/>
     </row>
-    <row r="291" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B291" s="38"/>
       <c r="O291" s="13"/>
       <c r="P291" s="19"/>
@@ -28041,7 +28156,7 @@
       <c r="T291" s="74"/>
       <c r="V291" s="57"/>
     </row>
-    <row r="292" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B292" s="38"/>
       <c r="O292" s="13"/>
       <c r="P292" s="19"/>
@@ -28051,7 +28166,7 @@
       <c r="T292" s="74"/>
       <c r="V292" s="57"/>
     </row>
-    <row r="293" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B293" s="38"/>
       <c r="O293" s="13"/>
       <c r="P293" s="19"/>
@@ -28061,7 +28176,7 @@
       <c r="T293" s="74"/>
       <c r="V293" s="57"/>
     </row>
-    <row r="294" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B294" s="38"/>
       <c r="O294" s="13"/>
       <c r="P294" s="19"/>
@@ -28071,7 +28186,7 @@
       <c r="T294" s="74"/>
       <c r="V294" s="57"/>
     </row>
-    <row r="295" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B295" s="38"/>
       <c r="O295" s="13"/>
       <c r="P295" s="19"/>
@@ -28081,7 +28196,7 @@
       <c r="T295" s="74"/>
       <c r="V295" s="57"/>
     </row>
-    <row r="296" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B296" s="38"/>
       <c r="O296" s="13"/>
       <c r="P296" s="19"/>
@@ -28091,7 +28206,7 @@
       <c r="T296" s="74"/>
       <c r="V296" s="57"/>
     </row>
-    <row r="297" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B297" s="38"/>
       <c r="O297" s="13"/>
       <c r="P297" s="19"/>
@@ -28101,7 +28216,7 @@
       <c r="T297" s="74"/>
       <c r="V297" s="57"/>
     </row>
-    <row r="298" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B298" s="38"/>
       <c r="O298" s="13"/>
       <c r="P298" s="19"/>
@@ -28111,7 +28226,7 @@
       <c r="T298" s="74"/>
       <c r="V298" s="57"/>
     </row>
-    <row r="299" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B299" s="38"/>
       <c r="O299" s="13"/>
       <c r="P299" s="19"/>
@@ -28121,7 +28236,7 @@
       <c r="T299" s="74"/>
       <c r="V299" s="57"/>
     </row>
-    <row r="300" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B300" s="38"/>
       <c r="O300" s="13"/>
       <c r="P300" s="19"/>
@@ -28131,7 +28246,7 @@
       <c r="T300" s="74"/>
       <c r="V300" s="57"/>
     </row>
-    <row r="301" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B301" s="38"/>
       <c r="O301" s="13"/>
       <c r="P301" s="19"/>
@@ -28141,7 +28256,7 @@
       <c r="T301" s="74"/>
       <c r="V301" s="57"/>
     </row>
-    <row r="302" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B302" s="38"/>
       <c r="O302" s="13"/>
       <c r="P302" s="19"/>
@@ -28151,7 +28266,7 @@
       <c r="T302" s="74"/>
       <c r="V302" s="57"/>
     </row>
-    <row r="303" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B303" s="38"/>
       <c r="O303" s="13"/>
       <c r="P303" s="19"/>
@@ -28161,7 +28276,7 @@
       <c r="T303" s="74"/>
       <c r="V303" s="57"/>
     </row>
-    <row r="304" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B304" s="38"/>
       <c r="O304" s="13"/>
       <c r="P304" s="19"/>
@@ -28171,7 +28286,7 @@
       <c r="T304" s="74"/>
       <c r="V304" s="57"/>
     </row>
-    <row r="305" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B305" s="38"/>
       <c r="O305" s="13"/>
       <c r="P305" s="19"/>
@@ -28181,7 +28296,7 @@
       <c r="T305" s="74"/>
       <c r="V305" s="57"/>
     </row>
-    <row r="306" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B306" s="38"/>
       <c r="O306" s="13"/>
       <c r="P306" s="19"/>
@@ -28191,7 +28306,7 @@
       <c r="T306" s="74"/>
       <c r="V306" s="57"/>
     </row>
-    <row r="307" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B307" s="38"/>
       <c r="O307" s="13"/>
       <c r="P307" s="19"/>
@@ -28201,7 +28316,7 @@
       <c r="T307" s="74"/>
       <c r="V307" s="57"/>
     </row>
-    <row r="308" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B308" s="38"/>
       <c r="O308" s="13"/>
       <c r="P308" s="19"/>
@@ -28211,7 +28326,7 @@
       <c r="T308" s="74"/>
       <c r="V308" s="57"/>
     </row>
-    <row r="309" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B309" s="38"/>
       <c r="O309" s="13"/>
       <c r="P309" s="19"/>
@@ -28221,7 +28336,7 @@
       <c r="T309" s="74"/>
       <c r="V309" s="57"/>
     </row>
-    <row r="310" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B310" s="38"/>
       <c r="O310" s="13"/>
       <c r="P310" s="19"/>
@@ -28231,7 +28346,7 @@
       <c r="T310" s="74"/>
       <c r="V310" s="57"/>
     </row>
-    <row r="311" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B311" s="38"/>
       <c r="O311" s="13"/>
       <c r="P311" s="19"/>
@@ -28241,7 +28356,7 @@
       <c r="T311" s="74"/>
       <c r="V311" s="57"/>
     </row>
-    <row r="312" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B312" s="38"/>
       <c r="O312" s="13"/>
       <c r="P312" s="19"/>
@@ -28251,7 +28366,7 @@
       <c r="T312" s="74"/>
       <c r="V312" s="57"/>
     </row>
-    <row r="313" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B313" s="38"/>
       <c r="O313" s="13"/>
       <c r="P313" s="19"/>
@@ -28261,7 +28376,7 @@
       <c r="T313" s="74"/>
       <c r="V313" s="57"/>
     </row>
-    <row r="314" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B314" s="38"/>
       <c r="O314" s="13"/>
       <c r="P314" s="19"/>
@@ -28271,7 +28386,7 @@
       <c r="T314" s="74"/>
       <c r="V314" s="57"/>
     </row>
-    <row r="315" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B315" s="38"/>
       <c r="O315" s="13"/>
       <c r="P315" s="19"/>
@@ -28281,7 +28396,7 @@
       <c r="T315" s="74"/>
       <c r="V315" s="57"/>
     </row>
-    <row r="316" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B316" s="38"/>
       <c r="O316" s="13"/>
       <c r="P316" s="19"/>
@@ -28291,7 +28406,7 @@
       <c r="T316" s="74"/>
       <c r="V316" s="57"/>
     </row>
-    <row r="317" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B317" s="38"/>
       <c r="O317" s="13"/>
       <c r="P317" s="19"/>
@@ -28301,7 +28416,7 @@
       <c r="T317" s="74"/>
       <c r="V317" s="57"/>
     </row>
-    <row r="318" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B318" s="38"/>
       <c r="O318" s="13"/>
       <c r="P318" s="19"/>
@@ -28311,7 +28426,7 @@
       <c r="T318" s="74"/>
       <c r="V318" s="57"/>
     </row>
-    <row r="319" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B319" s="38"/>
       <c r="O319" s="13"/>
       <c r="P319" s="19"/>
@@ -28321,7 +28436,7 @@
       <c r="T319" s="74"/>
       <c r="V319" s="57"/>
     </row>
-    <row r="320" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B320" s="38"/>
       <c r="O320" s="13"/>
       <c r="P320" s="19"/>
@@ -28331,7 +28446,7 @@
       <c r="T320" s="74"/>
       <c r="V320" s="57"/>
     </row>
-    <row r="321" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B321" s="38"/>
       <c r="O321" s="13"/>
       <c r="P321" s="19"/>
@@ -28341,7 +28456,7 @@
       <c r="T321" s="74"/>
       <c r="V321" s="57"/>
     </row>
-    <row r="322" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B322" s="38"/>
       <c r="O322" s="13"/>
       <c r="P322" s="19"/>
@@ -28351,7 +28466,7 @@
       <c r="T322" s="74"/>
       <c r="V322" s="57"/>
     </row>
-    <row r="323" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B323" s="38"/>
       <c r="O323" s="13"/>
       <c r="P323" s="19"/>
@@ -28361,7 +28476,7 @@
       <c r="T323" s="74"/>
       <c r="V323" s="57"/>
     </row>
-    <row r="324" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B324" s="38"/>
       <c r="O324" s="13"/>
       <c r="P324" s="19"/>
@@ -28371,7 +28486,7 @@
       <c r="T324" s="74"/>
       <c r="V324" s="57"/>
     </row>
-    <row r="325" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B325" s="38"/>
       <c r="O325" s="13"/>
       <c r="P325" s="19"/>
@@ -28381,7 +28496,7 @@
       <c r="T325" s="74"/>
       <c r="V325" s="57"/>
     </row>
-    <row r="326" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B326" s="38"/>
       <c r="O326" s="13"/>
       <c r="P326" s="19"/>
@@ -28391,7 +28506,7 @@
       <c r="T326" s="74"/>
       <c r="V326" s="57"/>
     </row>
-    <row r="327" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B327" s="38"/>
       <c r="O327" s="13"/>
       <c r="P327" s="19"/>
@@ -28401,7 +28516,7 @@
       <c r="T327" s="74"/>
       <c r="V327" s="57"/>
     </row>
-    <row r="328" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B328" s="38"/>
       <c r="O328" s="13"/>
       <c r="P328" s="19"/>
@@ -28411,7 +28526,7 @@
       <c r="T328" s="74"/>
       <c r="V328" s="57"/>
     </row>
-    <row r="329" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B329" s="38"/>
       <c r="O329" s="13"/>
       <c r="P329" s="19"/>
@@ -28421,7 +28536,7 @@
       <c r="T329" s="74"/>
       <c r="V329" s="57"/>
     </row>
-    <row r="330" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B330" s="38"/>
       <c r="O330" s="13"/>
       <c r="P330" s="19"/>
@@ -28431,7 +28546,7 @@
       <c r="T330" s="74"/>
       <c r="V330" s="57"/>
     </row>
-    <row r="331" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B331" s="38"/>
       <c r="O331" s="13"/>
       <c r="P331" s="19"/>
@@ -28441,7 +28556,7 @@
       <c r="T331" s="74"/>
       <c r="V331" s="57"/>
     </row>
-    <row r="332" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B332" s="38"/>
       <c r="O332" s="13"/>
       <c r="P332" s="19"/>
@@ -28451,7 +28566,7 @@
       <c r="T332" s="74"/>
       <c r="V332" s="57"/>
     </row>
-    <row r="333" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B333" s="38"/>
       <c r="O333" s="13"/>
       <c r="P333" s="19"/>
@@ -28461,7 +28576,7 @@
       <c r="T333" s="74"/>
       <c r="V333" s="57"/>
     </row>
-    <row r="334" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B334" s="38"/>
       <c r="O334" s="13"/>
       <c r="P334" s="19"/>
@@ -28471,7 +28586,7 @@
       <c r="T334" s="74"/>
       <c r="V334" s="57"/>
     </row>
-    <row r="335" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B335" s="38"/>
       <c r="O335" s="13"/>
       <c r="P335" s="19"/>
@@ -28481,7 +28596,7 @@
       <c r="T335" s="74"/>
       <c r="V335" s="57"/>
     </row>
-    <row r="336" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B336" s="38"/>
       <c r="O336" s="13"/>
       <c r="P336" s="19"/>
@@ -28491,7 +28606,7 @@
       <c r="T336" s="74"/>
       <c r="V336" s="57"/>
     </row>
-    <row r="337" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B337" s="38"/>
       <c r="O337" s="13"/>
       <c r="P337" s="19"/>
@@ -28501,7 +28616,7 @@
       <c r="T337" s="74"/>
       <c r="V337" s="57"/>
     </row>
-    <row r="338" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B338" s="38"/>
       <c r="O338" s="13"/>
       <c r="P338" s="19"/>
@@ -28511,7 +28626,7 @@
       <c r="T338" s="74"/>
       <c r="V338" s="57"/>
     </row>
-    <row r="339" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B339" s="38"/>
       <c r="O339" s="13"/>
       <c r="P339" s="19"/>
@@ -28521,7 +28636,7 @@
       <c r="T339" s="74"/>
       <c r="V339" s="57"/>
     </row>
-    <row r="340" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B340" s="38"/>
       <c r="O340" s="13"/>
       <c r="P340" s="19"/>
@@ -28531,7 +28646,7 @@
       <c r="T340" s="74"/>
       <c r="V340" s="57"/>
     </row>
-    <row r="341" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B341" s="38"/>
       <c r="O341" s="13"/>
       <c r="P341" s="19"/>
@@ -28541,7 +28656,7 @@
       <c r="T341" s="74"/>
       <c r="V341" s="57"/>
     </row>
-    <row r="342" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B342" s="38"/>
       <c r="O342" s="13"/>
       <c r="P342" s="19"/>
@@ -28551,7 +28666,7 @@
       <c r="T342" s="74"/>
       <c r="V342" s="57"/>
     </row>
-    <row r="343" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B343" s="38"/>
       <c r="O343" s="13"/>
       <c r="P343" s="19"/>
@@ -28561,7 +28676,7 @@
       <c r="T343" s="74"/>
       <c r="V343" s="57"/>
     </row>
-    <row r="344" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B344" s="38"/>
       <c r="O344" s="13"/>
       <c r="P344" s="19"/>
@@ -28571,7 +28686,7 @@
       <c r="T344" s="74"/>
       <c r="V344" s="57"/>
     </row>
-    <row r="345" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B345" s="38"/>
       <c r="O345" s="13"/>
       <c r="P345" s="19"/>
@@ -28581,7 +28696,7 @@
       <c r="T345" s="74"/>
       <c r="V345" s="57"/>
     </row>
-    <row r="346" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B346" s="38"/>
       <c r="O346" s="13"/>
       <c r="P346" s="19"/>
@@ -28591,7 +28706,7 @@
       <c r="T346" s="74"/>
       <c r="V346" s="57"/>
     </row>
-    <row r="347" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B347" s="38"/>
       <c r="O347" s="13"/>
       <c r="P347" s="19"/>
@@ -28601,7 +28716,7 @@
       <c r="T347" s="74"/>
       <c r="V347" s="57"/>
     </row>
-    <row r="348" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B348" s="38"/>
       <c r="O348" s="13"/>
       <c r="P348" s="19"/>
@@ -28611,7 +28726,7 @@
       <c r="T348" s="74"/>
       <c r="V348" s="57"/>
     </row>
-    <row r="349" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B349" s="38"/>
       <c r="O349" s="13"/>
       <c r="P349" s="19"/>
@@ -28621,7 +28736,7 @@
       <c r="T349" s="74"/>
       <c r="V349" s="57"/>
     </row>
-    <row r="350" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B350" s="38"/>
       <c r="O350" s="13"/>
       <c r="P350" s="19"/>
@@ -28631,7 +28746,7 @@
       <c r="T350" s="74"/>
       <c r="V350" s="57"/>
     </row>
-    <row r="351" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B351" s="38"/>
       <c r="O351" s="13"/>
       <c r="P351" s="19"/>
@@ -28641,7 +28756,7 @@
       <c r="T351" s="74"/>
       <c r="V351" s="57"/>
     </row>
-    <row r="352" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B352" s="38"/>
       <c r="O352" s="13"/>
       <c r="P352" s="19"/>
@@ -28651,7 +28766,7 @@
       <c r="T352" s="74"/>
       <c r="V352" s="57"/>
     </row>
-    <row r="353" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B353" s="38"/>
       <c r="O353" s="13"/>
       <c r="P353" s="19"/>
@@ -28661,7 +28776,7 @@
       <c r="T353" s="74"/>
       <c r="V353" s="57"/>
     </row>
-    <row r="354" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B354" s="38"/>
       <c r="O354" s="13"/>
       <c r="P354" s="19"/>
@@ -28671,7 +28786,7 @@
       <c r="T354" s="74"/>
       <c r="V354" s="57"/>
     </row>
-    <row r="355" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B355" s="38"/>
       <c r="O355" s="13"/>
       <c r="P355" s="19"/>
@@ -28681,7 +28796,7 @@
       <c r="T355" s="74"/>
       <c r="V355" s="57"/>
     </row>
-    <row r="356" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B356" s="38"/>
       <c r="O356" s="13"/>
       <c r="P356" s="19"/>
@@ -28691,7 +28806,7 @@
       <c r="T356" s="74"/>
       <c r="V356" s="57"/>
     </row>
-    <row r="357" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B357" s="38"/>
       <c r="O357" s="13"/>
       <c r="P357" s="19"/>
@@ -28701,7 +28816,7 @@
       <c r="T357" s="74"/>
       <c r="V357" s="57"/>
     </row>
-    <row r="358" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B358" s="38"/>
       <c r="O358" s="13"/>
       <c r="P358" s="19"/>
@@ -28711,7 +28826,7 @@
       <c r="T358" s="74"/>
       <c r="V358" s="57"/>
     </row>
-    <row r="359" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B359" s="38"/>
       <c r="O359" s="13"/>
       <c r="P359" s="19"/>
@@ -28721,7 +28836,7 @@
       <c r="T359" s="74"/>
       <c r="V359" s="57"/>
     </row>
-    <row r="360" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B360" s="38"/>
       <c r="O360" s="13"/>
       <c r="P360" s="19"/>
@@ -28731,7 +28846,7 @@
       <c r="T360" s="74"/>
       <c r="V360" s="57"/>
     </row>
-    <row r="361" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B361" s="38"/>
       <c r="O361" s="13"/>
       <c r="P361" s="19"/>
@@ -28741,7 +28856,7 @@
       <c r="T361" s="74"/>
       <c r="V361" s="57"/>
     </row>
-    <row r="362" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B362" s="38"/>
       <c r="O362" s="13"/>
       <c r="P362" s="19"/>
@@ -28751,7 +28866,7 @@
       <c r="T362" s="74"/>
       <c r="V362" s="57"/>
     </row>
-    <row r="363" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B363" s="38"/>
       <c r="O363" s="13"/>
       <c r="P363" s="19"/>
@@ -28761,7 +28876,7 @@
       <c r="T363" s="74"/>
       <c r="V363" s="57"/>
     </row>
-    <row r="364" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B364" s="38"/>
       <c r="O364" s="13"/>
       <c r="P364" s="19"/>
@@ -28771,7 +28886,7 @@
       <c r="T364" s="74"/>
       <c r="V364" s="57"/>
     </row>
-    <row r="365" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B365" s="38"/>
       <c r="O365" s="13"/>
       <c r="P365" s="19"/>
@@ -28781,7 +28896,7 @@
       <c r="T365" s="74"/>
       <c r="V365" s="57"/>
     </row>
-    <row r="366" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B366" s="38"/>
       <c r="O366" s="13"/>
       <c r="P366" s="19"/>
@@ -28791,7 +28906,7 @@
       <c r="T366" s="74"/>
       <c r="V366" s="57"/>
     </row>
-    <row r="367" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B367" s="38"/>
       <c r="O367" s="13"/>
       <c r="P367" s="19"/>
@@ -28801,7 +28916,7 @@
       <c r="T367" s="74"/>
       <c r="V367" s="57"/>
     </row>
-    <row r="368" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B368" s="38"/>
       <c r="O368" s="13"/>
       <c r="P368" s="19"/>
@@ -28811,7 +28926,7 @@
       <c r="T368" s="74"/>
       <c r="V368" s="57"/>
     </row>
-    <row r="369" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B369" s="38"/>
       <c r="O369" s="13"/>
       <c r="P369" s="19"/>
@@ -28821,7 +28936,7 @@
       <c r="T369" s="74"/>
       <c r="V369" s="57"/>
     </row>
-    <row r="370" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B370" s="38"/>
       <c r="O370" s="13"/>
       <c r="P370" s="19"/>
@@ -28831,7 +28946,7 @@
       <c r="T370" s="74"/>
       <c r="V370" s="57"/>
     </row>
-    <row r="371" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B371" s="38"/>
       <c r="O371" s="13"/>
       <c r="P371" s="19"/>
@@ -28841,7 +28956,7 @@
       <c r="T371" s="74"/>
       <c r="V371" s="57"/>
     </row>
-    <row r="372" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B372" s="38"/>
       <c r="O372" s="13"/>
       <c r="P372" s="19"/>
@@ -28851,7 +28966,7 @@
       <c r="T372" s="74"/>
       <c r="V372" s="57"/>
     </row>
-    <row r="373" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B373" s="38"/>
       <c r="O373" s="13"/>
       <c r="P373" s="19"/>
@@ -28861,7 +28976,7 @@
       <c r="T373" s="74"/>
       <c r="V373" s="57"/>
     </row>
-    <row r="374" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B374" s="38"/>
       <c r="O374" s="13"/>
       <c r="P374" s="19"/>
@@ -28871,7 +28986,7 @@
       <c r="T374" s="74"/>
       <c r="V374" s="57"/>
     </row>
-    <row r="375" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B375" s="38"/>
       <c r="O375" s="13"/>
       <c r="P375" s="19"/>
@@ -28881,7 +28996,7 @@
       <c r="T375" s="74"/>
       <c r="V375" s="57"/>
     </row>
-    <row r="376" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B376" s="38"/>
       <c r="O376" s="13"/>
       <c r="P376" s="19"/>
@@ -28891,7 +29006,7 @@
       <c r="T376" s="74"/>
       <c r="V376" s="57"/>
     </row>
-    <row r="377" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B377" s="38"/>
       <c r="O377" s="13"/>
       <c r="P377" s="19"/>
@@ -28901,7 +29016,7 @@
       <c r="T377" s="74"/>
       <c r="V377" s="57"/>
     </row>
-    <row r="378" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B378" s="38"/>
       <c r="O378" s="13"/>
       <c r="P378" s="19"/>
@@ -28911,7 +29026,7 @@
       <c r="T378" s="74"/>
       <c r="V378" s="57"/>
     </row>
-    <row r="379" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B379" s="38"/>
       <c r="O379" s="13"/>
       <c r="P379" s="19"/>
@@ -28921,7 +29036,7 @@
       <c r="T379" s="74"/>
       <c r="V379" s="57"/>
     </row>
-    <row r="380" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B380" s="38"/>
       <c r="O380" s="13"/>
       <c r="P380" s="19"/>
@@ -28931,7 +29046,7 @@
       <c r="T380" s="74"/>
       <c r="V380" s="57"/>
     </row>
-    <row r="381" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B381" s="38"/>
       <c r="O381" s="13"/>
       <c r="P381" s="19"/>
@@ -28941,7 +29056,7 @@
       <c r="T381" s="74"/>
       <c r="V381" s="57"/>
     </row>
-    <row r="382" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B382" s="38"/>
       <c r="O382" s="13"/>
       <c r="P382" s="19"/>
@@ -28951,7 +29066,7 @@
       <c r="T382" s="74"/>
       <c r="V382" s="57"/>
     </row>
-    <row r="383" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B383" s="38"/>
       <c r="O383" s="13"/>
       <c r="P383" s="19"/>
@@ -28961,7 +29076,7 @@
       <c r="T383" s="74"/>
       <c r="V383" s="57"/>
     </row>
-    <row r="384" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B384" s="38"/>
       <c r="O384" s="13"/>
       <c r="P384" s="19"/>
@@ -28971,7 +29086,7 @@
       <c r="T384" s="74"/>
       <c r="V384" s="57"/>
     </row>
-    <row r="385" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B385" s="38"/>
       <c r="O385" s="13"/>
       <c r="P385" s="19"/>
@@ -28981,7 +29096,7 @@
       <c r="T385" s="74"/>
       <c r="V385" s="57"/>
     </row>
-    <row r="386" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B386" s="38"/>
       <c r="O386" s="13"/>
       <c r="P386" s="19"/>
@@ -28991,7 +29106,7 @@
       <c r="T386" s="74"/>
       <c r="V386" s="57"/>
     </row>
-    <row r="387" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B387" s="38"/>
       <c r="O387" s="13"/>
       <c r="P387" s="19"/>
@@ -29001,7 +29116,7 @@
       <c r="T387" s="74"/>
       <c r="V387" s="57"/>
     </row>
-    <row r="388" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B388" s="38"/>
       <c r="O388" s="13"/>
       <c r="P388" s="19"/>
@@ -29011,7 +29126,7 @@
       <c r="T388" s="74"/>
       <c r="V388" s="57"/>
     </row>
-    <row r="389" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B389" s="38"/>
       <c r="O389" s="13"/>
       <c r="P389" s="19"/>
@@ -29021,7 +29136,7 @@
       <c r="T389" s="74"/>
       <c r="V389" s="57"/>
     </row>
-    <row r="390" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B390" s="38"/>
       <c r="O390" s="13"/>
       <c r="P390" s="19"/>
@@ -29031,7 +29146,7 @@
       <c r="T390" s="74"/>
       <c r="V390" s="57"/>
     </row>
-    <row r="391" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B391" s="38"/>
       <c r="O391" s="13"/>
       <c r="P391" s="19"/>
@@ -29041,7 +29156,7 @@
       <c r="T391" s="74"/>
       <c r="V391" s="57"/>
     </row>
-    <row r="392" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B392" s="38"/>
       <c r="O392" s="13"/>
       <c r="P392" s="19"/>
@@ -29051,7 +29166,7 @@
       <c r="T392" s="74"/>
       <c r="V392" s="57"/>
     </row>
-    <row r="393" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B393" s="38"/>
       <c r="O393" s="13"/>
       <c r="P393" s="19"/>
@@ -29061,7 +29176,7 @@
       <c r="T393" s="74"/>
       <c r="V393" s="57"/>
     </row>
-    <row r="394" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B394" s="38"/>
       <c r="O394" s="13"/>
       <c r="P394" s="19"/>
@@ -29071,7 +29186,7 @@
       <c r="T394" s="74"/>
       <c r="V394" s="57"/>
     </row>
-    <row r="395" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B395" s="38"/>
       <c r="O395" s="13"/>
       <c r="P395" s="19"/>
@@ -29081,7 +29196,7 @@
       <c r="T395" s="74"/>
       <c r="V395" s="57"/>
     </row>
-    <row r="396" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B396" s="38"/>
       <c r="O396" s="13"/>
       <c r="P396" s="19"/>
@@ -29091,7 +29206,7 @@
       <c r="T396" s="74"/>
       <c r="V396" s="57"/>
     </row>
-    <row r="397" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B397" s="38"/>
       <c r="O397" s="13"/>
       <c r="P397" s="19"/>
@@ -29101,7 +29216,7 @@
       <c r="T397" s="74"/>
       <c r="V397" s="57"/>
     </row>
-    <row r="398" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B398" s="38"/>
       <c r="O398" s="13"/>
       <c r="P398" s="19"/>
@@ -29111,7 +29226,7 @@
       <c r="T398" s="74"/>
       <c r="V398" s="57"/>
     </row>
-    <row r="399" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B399" s="38"/>
       <c r="O399" s="13"/>
       <c r="P399" s="19"/>
@@ -29121,7 +29236,7 @@
       <c r="T399" s="74"/>
       <c r="V399" s="57"/>
     </row>
-    <row r="400" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B400" s="38"/>
       <c r="O400" s="13"/>
       <c r="P400" s="19"/>
@@ -29131,7 +29246,7 @@
       <c r="T400" s="74"/>
       <c r="V400" s="57"/>
     </row>
-    <row r="401" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B401" s="38"/>
       <c r="O401" s="13"/>
       <c r="P401" s="19"/>
@@ -29141,7 +29256,7 @@
       <c r="T401" s="74"/>
       <c r="V401" s="57"/>
     </row>
-    <row r="402" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B402" s="38"/>
       <c r="O402" s="13"/>
       <c r="P402" s="19"/>
@@ -29151,7 +29266,7 @@
       <c r="T402" s="74"/>
       <c r="V402" s="57"/>
     </row>
-    <row r="403" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B403" s="38"/>
       <c r="O403" s="13"/>
       <c r="P403" s="19"/>
@@ -29161,7 +29276,7 @@
       <c r="T403" s="74"/>
       <c r="V403" s="57"/>
     </row>
-    <row r="404" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B404" s="38"/>
       <c r="O404" s="13"/>
       <c r="P404" s="19"/>
@@ -29171,7 +29286,7 @@
       <c r="T404" s="74"/>
       <c r="V404" s="57"/>
     </row>
-    <row r="405" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B405" s="38"/>
       <c r="O405" s="13"/>
       <c r="P405" s="19"/>
@@ -29181,7 +29296,7 @@
       <c r="T405" s="74"/>
       <c r="V405" s="57"/>
     </row>
-    <row r="406" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B406" s="38"/>
       <c r="O406" s="13"/>
       <c r="P406" s="19"/>
@@ -29191,7 +29306,7 @@
       <c r="T406" s="74"/>
       <c r="V406" s="57"/>
     </row>
-    <row r="407" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B407" s="38"/>
       <c r="O407" s="13"/>
       <c r="P407" s="19"/>
@@ -29201,7 +29316,7 @@
       <c r="T407" s="74"/>
       <c r="V407" s="57"/>
     </row>
-    <row r="408" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B408" s="38"/>
       <c r="O408" s="13"/>
       <c r="P408" s="19"/>
@@ -29211,7 +29326,7 @@
       <c r="T408" s="74"/>
       <c r="V408" s="57"/>
     </row>
-    <row r="409" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B409" s="38"/>
       <c r="O409" s="13"/>
       <c r="P409" s="19"/>
@@ -29221,7 +29336,7 @@
       <c r="T409" s="74"/>
       <c r="V409" s="57"/>
     </row>
-    <row r="410" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B410" s="38"/>
       <c r="O410" s="13"/>
       <c r="P410" s="19"/>
@@ -29231,7 +29346,7 @@
       <c r="T410" s="74"/>
       <c r="V410" s="57"/>
     </row>
-    <row r="411" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B411" s="38"/>
       <c r="O411" s="13"/>
       <c r="P411" s="19"/>
@@ -29241,7 +29356,7 @@
       <c r="T411" s="74"/>
       <c r="V411" s="57"/>
     </row>
-    <row r="412" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B412" s="38"/>
       <c r="O412" s="13"/>
       <c r="P412" s="19"/>
@@ -29251,7 +29366,7 @@
       <c r="T412" s="74"/>
       <c r="V412" s="57"/>
     </row>
-    <row r="413" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B413" s="38"/>
       <c r="O413" s="13"/>
       <c r="P413" s="19"/>
@@ -29261,7 +29376,7 @@
       <c r="T413" s="74"/>
       <c r="V413" s="57"/>
     </row>
-    <row r="414" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B414" s="38"/>
       <c r="O414" s="13"/>
       <c r="P414" s="19"/>
@@ -29271,7 +29386,7 @@
       <c r="T414" s="74"/>
       <c r="V414" s="57"/>
     </row>
-    <row r="415" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B415" s="38"/>
       <c r="O415" s="13"/>
       <c r="P415" s="19"/>
@@ -29281,7 +29396,7 @@
       <c r="T415" s="74"/>
       <c r="V415" s="57"/>
     </row>
-    <row r="416" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B416" s="38"/>
       <c r="O416" s="13"/>
       <c r="P416" s="19"/>
@@ -29291,7 +29406,7 @@
       <c r="T416" s="74"/>
       <c r="V416" s="57"/>
     </row>
-    <row r="417" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B417" s="38"/>
       <c r="O417" s="13"/>
       <c r="P417" s="19"/>
@@ -29301,7 +29416,7 @@
       <c r="T417" s="74"/>
       <c r="V417" s="57"/>
     </row>
-    <row r="418" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B418" s="38"/>
       <c r="O418" s="13"/>
       <c r="P418" s="19"/>
@@ -29311,7 +29426,7 @@
       <c r="T418" s="74"/>
       <c r="V418" s="57"/>
     </row>
-    <row r="419" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B419" s="38"/>
       <c r="O419" s="13"/>
       <c r="P419" s="19"/>
@@ -29321,7 +29436,7 @@
       <c r="T419" s="74"/>
       <c r="V419" s="57"/>
     </row>
-    <row r="420" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B420" s="38"/>
       <c r="O420" s="13"/>
       <c r="P420" s="19"/>
@@ -29331,7 +29446,7 @@
       <c r="T420" s="74"/>
       <c r="V420" s="57"/>
     </row>
-    <row r="421" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B421" s="38"/>
       <c r="O421" s="13"/>
       <c r="P421" s="19"/>
@@ -29341,7 +29456,7 @@
       <c r="T421" s="74"/>
       <c r="V421" s="57"/>
     </row>
-    <row r="422" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B422" s="38"/>
       <c r="O422" s="13"/>
       <c r="P422" s="19"/>
@@ -29351,7 +29466,7 @@
       <c r="T422" s="74"/>
       <c r="V422" s="57"/>
     </row>
-    <row r="423" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B423" s="38"/>
       <c r="O423" s="13"/>
       <c r="P423" s="19"/>
@@ -29361,7 +29476,7 @@
       <c r="T423" s="74"/>
       <c r="V423" s="57"/>
     </row>
-    <row r="424" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B424" s="38"/>
       <c r="O424" s="13"/>
       <c r="P424" s="19"/>
@@ -29371,7 +29486,7 @@
       <c r="T424" s="74"/>
       <c r="V424" s="57"/>
     </row>
-    <row r="425" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B425" s="38"/>
       <c r="O425" s="13"/>
       <c r="P425" s="19"/>
@@ -29381,7 +29496,7 @@
       <c r="T425" s="74"/>
       <c r="V425" s="57"/>
     </row>
-    <row r="426" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B426" s="38"/>
       <c r="O426" s="13"/>
       <c r="P426" s="19"/>
@@ -29391,7 +29506,7 @@
       <c r="T426" s="74"/>
       <c r="V426" s="57"/>
     </row>
-    <row r="427" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B427" s="38"/>
       <c r="O427" s="13"/>
       <c r="P427" s="19"/>
@@ -29401,7 +29516,7 @@
       <c r="T427" s="74"/>
       <c r="V427" s="57"/>
     </row>
-    <row r="428" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B428" s="38"/>
       <c r="O428" s="13"/>
       <c r="P428" s="19"/>
@@ -29411,7 +29526,7 @@
       <c r="T428" s="74"/>
       <c r="V428" s="57"/>
     </row>
-    <row r="429" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B429" s="38"/>
       <c r="O429" s="13"/>
       <c r="P429" s="19"/>
@@ -29421,7 +29536,7 @@
       <c r="T429" s="74"/>
       <c r="V429" s="57"/>
     </row>
-    <row r="430" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B430" s="38"/>
       <c r="O430" s="13"/>
       <c r="P430" s="19"/>
@@ -29431,7 +29546,7 @@
       <c r="T430" s="74"/>
       <c r="V430" s="57"/>
     </row>
-    <row r="431" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B431" s="38"/>
       <c r="O431" s="13"/>
       <c r="P431" s="19"/>
@@ -29441,7 +29556,7 @@
       <c r="T431" s="74"/>
       <c r="V431" s="57"/>
     </row>
-    <row r="432" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B432" s="38"/>
       <c r="O432" s="13"/>
       <c r="P432" s="19"/>
@@ -29451,7 +29566,7 @@
       <c r="T432" s="74"/>
       <c r="V432" s="57"/>
     </row>
-    <row r="433" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B433" s="38"/>
       <c r="O433" s="13"/>
       <c r="P433" s="19"/>
@@ -29461,7 +29576,7 @@
       <c r="T433" s="74"/>
       <c r="V433" s="57"/>
     </row>
-    <row r="434" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B434" s="38"/>
       <c r="O434" s="13"/>
       <c r="P434" s="19"/>
@@ -29471,7 +29586,7 @@
       <c r="T434" s="74"/>
       <c r="V434" s="57"/>
     </row>
-    <row r="435" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B435" s="38"/>
       <c r="O435" s="13"/>
       <c r="P435" s="19"/>
@@ -29481,7 +29596,7 @@
       <c r="T435" s="74"/>
       <c r="V435" s="57"/>
     </row>
-    <row r="436" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B436" s="38"/>
       <c r="O436" s="13"/>
       <c r="P436" s="19"/>
@@ -29491,7 +29606,7 @@
       <c r="T436" s="74"/>
       <c r="V436" s="57"/>
     </row>
-    <row r="437" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B437" s="38"/>
       <c r="O437" s="13"/>
       <c r="P437" s="19"/>
@@ -29501,7 +29616,7 @@
       <c r="T437" s="74"/>
       <c r="V437" s="57"/>
     </row>
-    <row r="438" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B438" s="38"/>
       <c r="O438" s="13"/>
       <c r="P438" s="19"/>
@@ -29511,7 +29626,7 @@
       <c r="T438" s="74"/>
       <c r="V438" s="57"/>
     </row>
-    <row r="439" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B439" s="38"/>
       <c r="O439" s="13"/>
       <c r="P439" s="19"/>
@@ -29521,7 +29636,7 @@
       <c r="T439" s="74"/>
       <c r="V439" s="57"/>
     </row>
-    <row r="440" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B440" s="38"/>
       <c r="O440" s="13"/>
       <c r="P440" s="19"/>
@@ -29531,7 +29646,7 @@
       <c r="T440" s="74"/>
       <c r="V440" s="57"/>
     </row>
-    <row r="441" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B441" s="38"/>
       <c r="O441" s="13"/>
       <c r="P441" s="19"/>
@@ -29541,7 +29656,7 @@
       <c r="T441" s="74"/>
       <c r="V441" s="57"/>
     </row>
-    <row r="442" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B442" s="38"/>
       <c r="O442" s="13"/>
       <c r="P442" s="19"/>
@@ -29551,7 +29666,7 @@
       <c r="T442" s="74"/>
       <c r="V442" s="57"/>
     </row>
-    <row r="443" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B443" s="38"/>
       <c r="O443" s="13"/>
       <c r="P443" s="19"/>
@@ -29561,7 +29676,7 @@
       <c r="T443" s="74"/>
       <c r="V443" s="57"/>
     </row>
-    <row r="444" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B444" s="38"/>
       <c r="O444" s="13"/>
       <c r="P444" s="19"/>
@@ -29571,7 +29686,7 @@
       <c r="T444" s="74"/>
       <c r="V444" s="57"/>
     </row>
-    <row r="445" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B445" s="38"/>
       <c r="O445" s="13"/>
       <c r="P445" s="19"/>
@@ -29581,7 +29696,7 @@
       <c r="T445" s="74"/>
       <c r="V445" s="57"/>
     </row>
-    <row r="446" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B446" s="38"/>
       <c r="O446" s="13"/>
       <c r="P446" s="19"/>
@@ -29591,7 +29706,7 @@
       <c r="T446" s="74"/>
       <c r="V446" s="57"/>
     </row>
-    <row r="447" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B447" s="38"/>
       <c r="O447" s="13"/>
       <c r="P447" s="19"/>
@@ -29601,7 +29716,7 @@
       <c r="T447" s="74"/>
       <c r="V447" s="57"/>
     </row>
-    <row r="448" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B448" s="38"/>
       <c r="O448" s="13"/>
       <c r="P448" s="19"/>
@@ -29611,7 +29726,7 @@
       <c r="T448" s="74"/>
       <c r="V448" s="57"/>
     </row>
-    <row r="449" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B449" s="38"/>
       <c r="O449" s="13"/>
       <c r="P449" s="19"/>
@@ -29621,7 +29736,7 @@
       <c r="T449" s="74"/>
       <c r="V449" s="57"/>
     </row>
-    <row r="450" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B450" s="38"/>
       <c r="O450" s="13"/>
       <c r="P450" s="19"/>
@@ -29631,7 +29746,7 @@
       <c r="T450" s="74"/>
       <c r="V450" s="57"/>
     </row>
-    <row r="451" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B451" s="38"/>
       <c r="O451" s="13"/>
       <c r="P451" s="19"/>
@@ -29641,7 +29756,7 @@
       <c r="T451" s="74"/>
       <c r="V451" s="57"/>
     </row>
-    <row r="452" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B452" s="38"/>
       <c r="O452" s="13"/>
       <c r="P452" s="19"/>
@@ -29651,7 +29766,7 @@
       <c r="T452" s="74"/>
       <c r="V452" s="57"/>
     </row>
-    <row r="453" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B453" s="38"/>
       <c r="O453" s="13"/>
       <c r="P453" s="19"/>
@@ -29661,7 +29776,7 @@
       <c r="T453" s="74"/>
       <c r="V453" s="57"/>
     </row>
-    <row r="454" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B454" s="38"/>
       <c r="O454" s="13"/>
       <c r="P454" s="19"/>
@@ -29671,7 +29786,7 @@
       <c r="T454" s="74"/>
       <c r="V454" s="57"/>
     </row>
-    <row r="455" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B455" s="38"/>
       <c r="O455" s="13"/>
       <c r="P455" s="19"/>
@@ -29681,7 +29796,7 @@
       <c r="T455" s="74"/>
       <c r="V455" s="57"/>
     </row>
-    <row r="456" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B456" s="38"/>
       <c r="O456" s="13"/>
       <c r="P456" s="19"/>
@@ -29691,7 +29806,7 @@
       <c r="T456" s="74"/>
       <c r="V456" s="57"/>
     </row>
-    <row r="457" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B457" s="38"/>
       <c r="O457" s="13"/>
       <c r="P457" s="19"/>
@@ -29701,7 +29816,7 @@
       <c r="T457" s="74"/>
       <c r="V457" s="57"/>
     </row>
-    <row r="458" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B458" s="38"/>
       <c r="O458" s="13"/>
       <c r="P458" s="19"/>
@@ -29711,7 +29826,7 @@
       <c r="T458" s="74"/>
       <c r="V458" s="57"/>
     </row>
-    <row r="459" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B459" s="38"/>
       <c r="O459" s="13"/>
       <c r="P459" s="19"/>
@@ -29721,7 +29836,7 @@
       <c r="T459" s="74"/>
       <c r="V459" s="57"/>
     </row>
-    <row r="460" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B460" s="38"/>
       <c r="O460" s="13"/>
       <c r="P460" s="19"/>
@@ -29731,7 +29846,7 @@
       <c r="T460" s="74"/>
       <c r="V460" s="57"/>
     </row>
-    <row r="461" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B461" s="38"/>
       <c r="O461" s="13"/>
       <c r="P461" s="19"/>
@@ -29741,7 +29856,7 @@
       <c r="T461" s="74"/>
       <c r="V461" s="57"/>
     </row>
-    <row r="462" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B462" s="38"/>
       <c r="O462" s="13"/>
       <c r="P462" s="19"/>
@@ -29751,7 +29866,7 @@
       <c r="T462" s="74"/>
       <c r="V462" s="57"/>
     </row>
-    <row r="463" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B463" s="38"/>
       <c r="O463" s="13"/>
       <c r="P463" s="19"/>
@@ -29761,7 +29876,7 @@
       <c r="T463" s="74"/>
       <c r="V463" s="57"/>
     </row>
-    <row r="464" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B464" s="38"/>
       <c r="O464" s="13"/>
       <c r="P464" s="19"/>
@@ -29771,7 +29886,7 @@
       <c r="T464" s="74"/>
       <c r="V464" s="57"/>
     </row>
-    <row r="465" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B465" s="38"/>
       <c r="O465" s="13"/>
       <c r="P465" s="19"/>
@@ -29781,7 +29896,7 @@
       <c r="T465" s="74"/>
       <c r="V465" s="57"/>
     </row>
-    <row r="466" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B466" s="38"/>
       <c r="O466" s="13"/>
       <c r="P466" s="19"/>
@@ -29791,7 +29906,7 @@
       <c r="T466" s="74"/>
       <c r="V466" s="57"/>
     </row>
-    <row r="467" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B467" s="38"/>
       <c r="O467" s="13"/>
       <c r="P467" s="19"/>
@@ -29801,7 +29916,7 @@
       <c r="T467" s="74"/>
       <c r="V467" s="57"/>
     </row>
-    <row r="468" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B468" s="38"/>
       <c r="O468" s="13"/>
       <c r="P468" s="19"/>
@@ -29811,7 +29926,7 @@
       <c r="T468" s="74"/>
       <c r="V468" s="57"/>
     </row>
-    <row r="469" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B469" s="38"/>
       <c r="O469" s="13"/>
       <c r="P469" s="19"/>
@@ -29821,7 +29936,7 @@
       <c r="T469" s="74"/>
       <c r="V469" s="57"/>
     </row>
-    <row r="470" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B470" s="38"/>
       <c r="O470" s="13"/>
       <c r="P470" s="19"/>
@@ -29831,7 +29946,7 @@
       <c r="T470" s="74"/>
       <c r="V470" s="57"/>
     </row>
-    <row r="471" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B471" s="38"/>
       <c r="O471" s="13"/>
       <c r="P471" s="19"/>
@@ -29841,7 +29956,7 @@
       <c r="T471" s="74"/>
       <c r="V471" s="57"/>
     </row>
-    <row r="472" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B472" s="38"/>
       <c r="O472" s="13"/>
       <c r="P472" s="19"/>
@@ -29851,7 +29966,7 @@
       <c r="T472" s="74"/>
       <c r="V472" s="57"/>
     </row>
-    <row r="473" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B473" s="38"/>
       <c r="O473" s="13"/>
       <c r="P473" s="19"/>
@@ -29861,7 +29976,7 @@
       <c r="T473" s="74"/>
       <c r="V473" s="57"/>
     </row>
-    <row r="474" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B474" s="38"/>
       <c r="O474" s="13"/>
       <c r="P474" s="19"/>
@@ -29871,7 +29986,7 @@
       <c r="T474" s="74"/>
       <c r="V474" s="57"/>
     </row>
-    <row r="475" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B475" s="38"/>
       <c r="O475" s="13"/>
       <c r="P475" s="19"/>
@@ -29881,7 +29996,7 @@
       <c r="T475" s="74"/>
       <c r="V475" s="57"/>
     </row>
-    <row r="476" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B476" s="38"/>
       <c r="O476" s="13"/>
       <c r="P476" s="19"/>
@@ -29891,7 +30006,7 @@
       <c r="T476" s="74"/>
       <c r="V476" s="57"/>
     </row>
-    <row r="477" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B477" s="38"/>
       <c r="O477" s="13"/>
       <c r="P477" s="19"/>
@@ -29901,7 +30016,7 @@
       <c r="T477" s="74"/>
       <c r="V477" s="57"/>
     </row>
-    <row r="478" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B478" s="38"/>
       <c r="O478" s="13"/>
       <c r="P478" s="19"/>
@@ -29911,7 +30026,7 @@
       <c r="T478" s="74"/>
       <c r="V478" s="57"/>
     </row>
-    <row r="479" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B479" s="38"/>
       <c r="O479" s="13"/>
       <c r="P479" s="19"/>
@@ -29921,7 +30036,7 @@
       <c r="T479" s="74"/>
       <c r="V479" s="57"/>
     </row>
-    <row r="480" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B480" s="38"/>
       <c r="O480" s="13"/>
       <c r="P480" s="19"/>
@@ -29931,7 +30046,7 @@
       <c r="T480" s="74"/>
       <c r="V480" s="57"/>
     </row>
-    <row r="481" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B481" s="38"/>
       <c r="O481" s="13"/>
       <c r="P481" s="19"/>
@@ -29941,7 +30056,7 @@
       <c r="T481" s="74"/>
       <c r="V481" s="57"/>
     </row>
-    <row r="482" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B482" s="38"/>
       <c r="O482" s="13"/>
       <c r="P482" s="19"/>
@@ -29951,7 +30066,7 @@
       <c r="T482" s="74"/>
       <c r="V482" s="57"/>
     </row>
-    <row r="483" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B483" s="38"/>
       <c r="O483" s="13"/>
       <c r="P483" s="19"/>
@@ -29961,7 +30076,7 @@
       <c r="T483" s="74"/>
       <c r="V483" s="57"/>
     </row>
-    <row r="484" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B484" s="38"/>
       <c r="O484" s="13"/>
       <c r="P484" s="19"/>
@@ -29971,7 +30086,7 @@
       <c r="T484" s="74"/>
       <c r="V484" s="57"/>
     </row>
-    <row r="485" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B485" s="38"/>
       <c r="O485" s="13"/>
       <c r="P485" s="19"/>
@@ -29981,7 +30096,7 @@
       <c r="T485" s="74"/>
       <c r="V485" s="57"/>
     </row>
-    <row r="486" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B486" s="38"/>
       <c r="O486" s="13"/>
       <c r="P486" s="19"/>
@@ -29991,7 +30106,7 @@
       <c r="T486" s="74"/>
       <c r="V486" s="57"/>
     </row>
-    <row r="487" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B487" s="38"/>
       <c r="O487" s="13"/>
       <c r="P487" s="19"/>
@@ -30001,7 +30116,7 @@
       <c r="T487" s="74"/>
       <c r="V487" s="57"/>
     </row>
-    <row r="488" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B488" s="38"/>
       <c r="O488" s="13"/>
       <c r="P488" s="19"/>
@@ -30011,7 +30126,7 @@
       <c r="T488" s="74"/>
       <c r="V488" s="57"/>
     </row>
-    <row r="489" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B489" s="38"/>
       <c r="O489" s="13"/>
       <c r="P489" s="19"/>
@@ -30021,7 +30136,7 @@
       <c r="T489" s="74"/>
       <c r="V489" s="57"/>
     </row>
-    <row r="490" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B490" s="38"/>
       <c r="O490" s="13"/>
       <c r="P490" s="19"/>
@@ -30031,7 +30146,7 @@
       <c r="T490" s="74"/>
       <c r="V490" s="57"/>
     </row>
-    <row r="491" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B491" s="38"/>
       <c r="O491" s="13"/>
       <c r="P491" s="19"/>
@@ -30041,7 +30156,7 @@
       <c r="T491" s="74"/>
       <c r="V491" s="57"/>
     </row>
-    <row r="492" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B492" s="38"/>
       <c r="O492" s="13"/>
       <c r="P492" s="19"/>
@@ -30051,7 +30166,7 @@
       <c r="T492" s="74"/>
       <c r="V492" s="57"/>
     </row>
-    <row r="493" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B493" s="38"/>
       <c r="O493" s="13"/>
       <c r="P493" s="19"/>
@@ -30061,7 +30176,7 @@
       <c r="T493" s="74"/>
       <c r="V493" s="57"/>
     </row>
-    <row r="494" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B494" s="38"/>
       <c r="O494" s="13"/>
       <c r="P494" s="19"/>
@@ -30071,7 +30186,7 @@
       <c r="T494" s="74"/>
       <c r="V494" s="57"/>
     </row>
-    <row r="495" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B495" s="38"/>
       <c r="O495" s="13"/>
       <c r="P495" s="19"/>
@@ -30081,7 +30196,7 @@
       <c r="T495" s="74"/>
       <c r="V495" s="57"/>
     </row>
-    <row r="496" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B496" s="38"/>
       <c r="O496" s="13"/>
       <c r="P496" s="19"/>
@@ -30091,7 +30206,7 @@
       <c r="T496" s="74"/>
       <c r="V496" s="57"/>
     </row>
-    <row r="497" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B497" s="38"/>
       <c r="O497" s="13"/>
       <c r="P497" s="19"/>
@@ -30101,7 +30216,7 @@
       <c r="T497" s="74"/>
       <c r="V497" s="57"/>
     </row>
-    <row r="498" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B498" s="38"/>
       <c r="O498" s="13"/>
       <c r="P498" s="19"/>
@@ -30111,7 +30226,7 @@
       <c r="T498" s="74"/>
       <c r="V498" s="57"/>
     </row>
-    <row r="499" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B499" s="38"/>
       <c r="O499" s="13"/>
       <c r="P499" s="19"/>
@@ -30121,7 +30236,7 @@
       <c r="T499" s="74"/>
       <c r="V499" s="57"/>
     </row>
-    <row r="500" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B500" s="38"/>
       <c r="O500" s="13"/>
       <c r="P500" s="19"/>
@@ -30131,7 +30246,7 @@
       <c r="T500" s="74"/>
       <c r="V500" s="57"/>
     </row>
-    <row r="501" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B501" s="38"/>
       <c r="O501" s="13"/>
       <c r="P501" s="19"/>
@@ -30141,7 +30256,7 @@
       <c r="T501" s="74"/>
       <c r="V501" s="57"/>
     </row>
-    <row r="502" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B502" s="38"/>
       <c r="O502" s="13"/>
       <c r="P502" s="19"/>
@@ -30151,7 +30266,7 @@
       <c r="T502" s="74"/>
       <c r="V502" s="57"/>
     </row>
-    <row r="503" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B503" s="38"/>
       <c r="O503" s="13"/>
       <c r="P503" s="19"/>
@@ -30161,7 +30276,7 @@
       <c r="T503" s="74"/>
       <c r="V503" s="57"/>
     </row>
-    <row r="504" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B504" s="38"/>
       <c r="O504" s="13"/>
       <c r="P504" s="19"/>
@@ -30171,7 +30286,7 @@
       <c r="T504" s="74"/>
       <c r="V504" s="57"/>
     </row>
-    <row r="505" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B505" s="38"/>
       <c r="O505" s="13"/>
       <c r="P505" s="19"/>
@@ -30181,7 +30296,7 @@
       <c r="T505" s="74"/>
       <c r="V505" s="57"/>
     </row>
-    <row r="506" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B506" s="38"/>
       <c r="O506" s="13"/>
       <c r="P506" s="19"/>
@@ -30191,7 +30306,7 @@
       <c r="T506" s="74"/>
       <c r="V506" s="57"/>
     </row>
-    <row r="507" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B507" s="38"/>
       <c r="O507" s="13"/>
       <c r="P507" s="19"/>
@@ -30201,7 +30316,7 @@
       <c r="T507" s="74"/>
       <c r="V507" s="57"/>
     </row>
-    <row r="508" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B508" s="38"/>
       <c r="O508" s="13"/>
       <c r="P508" s="19"/>
@@ -30211,7 +30326,7 @@
       <c r="T508" s="74"/>
       <c r="V508" s="57"/>
     </row>
-    <row r="509" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B509" s="38"/>
       <c r="O509" s="13"/>
       <c r="P509" s="19"/>
@@ -30221,7 +30336,7 @@
       <c r="T509" s="74"/>
       <c r="V509" s="57"/>
     </row>
-    <row r="510" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B510" s="38"/>
       <c r="O510" s="13"/>
       <c r="P510" s="19"/>
@@ -30231,7 +30346,7 @@
       <c r="T510" s="74"/>
       <c r="V510" s="57"/>
     </row>
-    <row r="511" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B511" s="38"/>
       <c r="O511" s="13"/>
       <c r="P511" s="19"/>
@@ -30241,7 +30356,7 @@
       <c r="T511" s="74"/>
       <c r="V511" s="57"/>
     </row>
-    <row r="512" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B512" s="38"/>
       <c r="O512" s="13"/>
       <c r="P512" s="19"/>
@@ -30251,7 +30366,7 @@
       <c r="T512" s="74"/>
       <c r="V512" s="57"/>
     </row>
-    <row r="513" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B513" s="38"/>
       <c r="O513" s="13"/>
       <c r="P513" s="19"/>
@@ -30261,7 +30376,7 @@
       <c r="T513" s="74"/>
       <c r="V513" s="57"/>
     </row>
-    <row r="514" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B514" s="38"/>
       <c r="O514" s="13"/>
       <c r="P514" s="19"/>
@@ -30271,7 +30386,7 @@
       <c r="T514" s="74"/>
       <c r="V514" s="57"/>
     </row>
-    <row r="515" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B515" s="38"/>
       <c r="O515" s="13"/>
       <c r="P515" s="19"/>
@@ -30281,7 +30396,7 @@
       <c r="T515" s="74"/>
       <c r="V515" s="57"/>
     </row>
-    <row r="516" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B516" s="38"/>
       <c r="O516" s="13"/>
       <c r="P516" s="19"/>
@@ -30291,7 +30406,7 @@
       <c r="T516" s="74"/>
       <c r="V516" s="57"/>
     </row>
-    <row r="517" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B517" s="38"/>
       <c r="O517" s="13"/>
       <c r="P517" s="19"/>
@@ -30301,7 +30416,7 @@
       <c r="T517" s="74"/>
       <c r="V517" s="57"/>
     </row>
-    <row r="518" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B518" s="38"/>
       <c r="O518" s="13"/>
       <c r="P518" s="19"/>
@@ -30311,7 +30426,7 @@
       <c r="T518" s="74"/>
       <c r="V518" s="57"/>
     </row>
-    <row r="519" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B519" s="38"/>
       <c r="O519" s="13"/>
       <c r="P519" s="19"/>
@@ -30321,7 +30436,7 @@
       <c r="T519" s="74"/>
       <c r="V519" s="57"/>
     </row>
-    <row r="520" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B520" s="38"/>
       <c r="O520" s="13"/>
       <c r="P520" s="19"/>
@@ -30331,7 +30446,7 @@
       <c r="T520" s="74"/>
       <c r="V520" s="57"/>
     </row>
-    <row r="521" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B521" s="38"/>
       <c r="O521" s="13"/>
       <c r="P521" s="19"/>
@@ -30341,7 +30456,7 @@
       <c r="T521" s="74"/>
       <c r="V521" s="57"/>
     </row>
-    <row r="522" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B522" s="38"/>
       <c r="O522" s="13"/>
       <c r="P522" s="19"/>
@@ -30351,7 +30466,7 @@
       <c r="T522" s="74"/>
       <c r="V522" s="57"/>
     </row>
-    <row r="523" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B523" s="38"/>
       <c r="O523" s="13"/>
       <c r="P523" s="19"/>
@@ -30361,7 +30476,7 @@
       <c r="T523" s="74"/>
       <c r="V523" s="57"/>
     </row>
-    <row r="524" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B524" s="38"/>
       <c r="O524" s="13"/>
       <c r="P524" s="19"/>
@@ -30371,7 +30486,7 @@
       <c r="T524" s="74"/>
       <c r="V524" s="57"/>
     </row>
-    <row r="525" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B525" s="38"/>
       <c r="O525" s="13"/>
       <c r="P525" s="19"/>
@@ -30381,7 +30496,7 @@
       <c r="T525" s="74"/>
       <c r="V525" s="57"/>
     </row>
-    <row r="526" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B526" s="38"/>
       <c r="O526" s="13"/>
       <c r="P526" s="19"/>
@@ -30391,7 +30506,7 @@
       <c r="T526" s="74"/>
       <c r="V526" s="57"/>
     </row>
-    <row r="527" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B527" s="38"/>
       <c r="O527" s="13"/>
       <c r="P527" s="19"/>
@@ -30401,7 +30516,7 @@
       <c r="T527" s="74"/>
       <c r="V527" s="57"/>
     </row>
-    <row r="528" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B528" s="38"/>
       <c r="O528" s="13"/>
       <c r="P528" s="19"/>
@@ -30411,7 +30526,7 @@
       <c r="T528" s="74"/>
       <c r="V528" s="57"/>
     </row>
-    <row r="529" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B529" s="38"/>
       <c r="O529" s="13"/>
       <c r="P529" s="19"/>
@@ -30421,7 +30536,7 @@
       <c r="T529" s="74"/>
       <c r="V529" s="57"/>
     </row>
-    <row r="530" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B530" s="38"/>
       <c r="O530" s="13"/>
       <c r="P530" s="19"/>
@@ -30431,7 +30546,7 @@
       <c r="T530" s="74"/>
       <c r="V530" s="57"/>
     </row>
-    <row r="531" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B531" s="38"/>
       <c r="O531" s="13"/>
       <c r="P531" s="19"/>
@@ -30441,7 +30556,7 @@
       <c r="T531" s="74"/>
       <c r="V531" s="57"/>
     </row>
-    <row r="532" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B532" s="38"/>
       <c r="O532" s="13"/>
       <c r="P532" s="19"/>
@@ -30451,7 +30566,7 @@
       <c r="T532" s="74"/>
       <c r="V532" s="57"/>
     </row>
-    <row r="533" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B533" s="38"/>
       <c r="O533" s="13"/>
       <c r="P533" s="19"/>
@@ -30462,7 +30577,20 @@
       <c r="V533" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AI277" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AI277" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FEA"/>
+        <filter val="FED"/>
+        <filter val="FEH"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="QUAD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="P1:R1"/>
@@ -30494,7 +30622,7 @@
       <formula>$C4="Quadrupole"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$3:$D$3</formula1>
     </dataValidation>
@@ -30511,33 +30639,33 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="14" max="14" width="61.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
@@ -30606,7 +30734,7 @@
       </c>
       <c r="W1" s="37"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -30669,7 +30797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -30730,7 +30858,7 @@
       </c>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -30790,7 +30918,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -30856,7 +30984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -30922,7 +31050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -30989,7 +31117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -31056,7 +31184,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -31118,7 +31246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -31179,7 +31307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -31240,7 +31368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>95</v>
       </c>
@@ -31300,7 +31428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>218</v>
       </c>
@@ -31355,7 +31483,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -31431,7 +31559,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -31505,7 +31633,7 @@
       </c>
       <c r="W15" s="58"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -31585,7 +31713,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -31660,7 +31788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -31727,7 +31855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -31765,7 +31893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -31830,7 +31958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -31900,7 +32028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -31970,7 +32098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -32040,7 +32168,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -32060,6 +32188,9 @@
       <c r="F24" s="57" t="s">
         <v>18</v>
       </c>
+      <c r="G24">
+        <v>176.4</v>
+      </c>
       <c r="I24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32083,7 +32214,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -32103,6 +32234,9 @@
       <c r="F25" s="57" t="s">
         <v>18</v>
       </c>
+      <c r="G25">
+        <v>176.4</v>
+      </c>
       <c r="I25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32126,7 +32260,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -32146,6 +32280,9 @@
       <c r="F26" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
       <c r="I26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32169,7 +32306,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -32189,6 +32326,9 @@
       <c r="F27" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
       <c r="I27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32215,7 +32355,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -32235,6 +32375,9 @@
       <c r="F28" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
       <c r="I28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32261,7 +32404,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>271</v>
       </c>
@@ -32312,7 +32455,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -32331,7 +32474,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -32350,7 +32493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>194</v>
       </c>
@@ -32369,7 +32512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -32388,7 +32531,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -32407,7 +32550,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -32426,7 +32569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.3</v>
       </c>
@@ -32490,28 +32633,28 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="17" t="s">
         <v>60</v>
       </c>
@@ -32530,7 +32673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -32592,7 +32735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -32657,7 +32800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -32718,7 +32861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32764,7 +32907,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -32810,7 +32953,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -32856,7 +32999,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -32902,7 +33045,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -32948,7 +33091,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -32994,7 +33137,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -33040,7 +33183,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -33086,7 +33229,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -33124,7 +33267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -33162,7 +33305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -33196,7 +33339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -33230,7 +33373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
@@ -33249,30 +33392,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -33286,7 +33429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -33294,7 +33437,7 @@
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -33308,7 +33451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>3</v>
       </c>
@@ -33322,7 +33465,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>3.1</v>
       </c>
@@ -33336,7 +33479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>3.2</v>
       </c>
@@ -33348,7 +33491,7 @@
       </c>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3.3</v>
       </c>
@@ -33362,7 +33505,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>3.4</v>
       </c>
@@ -33376,7 +33519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>3.5</v>
       </c>
@@ -33390,7 +33533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>4</v>
       </c>
@@ -33404,7 +33547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>4.0999999999999996</v>
       </c>
@@ -33418,7 +33561,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>5</v>
       </c>
@@ -33432,7 +33575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>5.0999999999999996</v>
       </c>
@@ -33446,7 +33589,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>5.2</v>
       </c>
@@ -33460,7 +33603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>6</v>
       </c>
@@ -33474,7 +33617,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <v>6.01</v>
       </c>
@@ -33488,7 +33631,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <v>6.02</v>
       </c>
@@ -33502,7 +33645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <v>6.03</v>
       </c>
@@ -33516,7 +33659,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <v>6.04</v>
       </c>
@@ -33530,7 +33673,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>6.05</v>
       </c>
@@ -33544,7 +33687,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>6.06</v>
       </c>
@@ -33558,7 +33701,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>6.07</v>
       </c>
@@ -33572,7 +33715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <v>6.08</v>
       </c>
@@ -33586,7 +33729,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <v>6.09</v>
       </c>
@@ -33600,7 +33743,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <v>6.1</v>
       </c>
@@ -33614,7 +33757,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <v>6.11</v>
       </c>
@@ -33628,7 +33771,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <v>6.12</v>
       </c>
@@ -33642,7 +33785,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>6.13</v>
       </c>
@@ -33656,7 +33799,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>6.14</v>
       </c>
@@ -33670,7 +33813,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>6.15</v>
       </c>
@@ -33684,7 +33827,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>6.16</v>
       </c>
@@ -33698,7 +33841,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>6.17</v>
       </c>
@@ -33712,7 +33855,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>6.18</v>
       </c>
@@ -33726,7 +33869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>6.19</v>
       </c>
@@ -33740,7 +33883,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>6.2</v>
       </c>
@@ -33754,7 +33897,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>6.21</v>
       </c>
@@ -33768,7 +33911,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>6.22</v>
       </c>
@@ -33782,7 +33925,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>6.23</v>
       </c>
@@ -33794,6 +33937,34 @@
       </c>
       <c r="D41" s="29" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>6.24</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45581</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
+        <v>6.25</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45607</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
